--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TypeTest" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="149">
   <si>
     <t>text</t>
   </si>
@@ -452,6 +452,24 @@
   </si>
   <si>
     <t>org</t>
+  </si>
+  <si>
+    <t>xcomputedint</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>xcomputedxref</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>{Chromosome: xstring, Position: xint}</t>
   </si>
 </sst>
 </file>
@@ -500,9 +518,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -515,13 +534,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -824,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AM39" sqref="AM39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5009,20 +5029,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5032,8 +5052,11 @@
       <c r="C1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -5044,7 +5067,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -5054,6 +5077,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5064,24 +5088,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5127,8 +5152,11 @@
       <c r="O1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5148,7 +5176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -5171,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -5191,7 +5219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -5211,7 +5239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5231,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -5251,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5271,7 +5299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5291,7 +5319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -5308,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -5325,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5345,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -5365,7 +5393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -5382,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5402,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5748,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -5768,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -5785,7 +5813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -5802,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -5819,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -5842,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -5862,7 +5890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -5882,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -5902,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -5922,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -5942,7 +5970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -5963,6 +5991,55 @@
       </c>
       <c r="O43" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16440"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="148">
   <si>
     <t>text</t>
   </si>
@@ -452,6 +452,21 @@
   </si>
   <si>
     <t>org</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>sf</t>
   </si>
 </sst>
 </file>
@@ -822,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AP39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AM39" sqref="AM39"/>
+      <selection activeCell="AP11" sqref="AP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -853,7 +868,7 @@
     <col min="38" max="38" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:42">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -974,8 +989,14 @@
       <c r="AN1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:40">
+      <c r="AO1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1096,8 +1117,14 @@
       <c r="AN2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:40">
+      <c r="AO2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1218,8 +1245,14 @@
       <c r="AN3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:40">
+      <c r="AO3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1289,8 +1322,14 @@
       <c r="AN4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:40">
+      <c r="AO4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1411,8 +1450,14 @@
       <c r="AN5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:40">
+      <c r="AO5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1533,8 +1578,11 @@
       <c r="AN6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:40">
+      <c r="AO6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1602,7 +1650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:42">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1721,7 +1769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:42">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1840,7 +1888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:42">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1908,7 +1956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:42">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2027,7 +2075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:42">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2146,7 +2194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:42">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2214,7 +2262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:42">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2333,7 +2381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:42">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2452,7 +2500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:42">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5064,10 +5112,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5965,6 +6013,40 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="1:15">
+      <c r="A44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16440" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TypeTest" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="143">
   <si>
     <t>text</t>
   </si>
@@ -452,21 +452,6 @@
   </si>
   <si>
     <t>org</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>sf</t>
   </si>
 </sst>
 </file>
@@ -837,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP39"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AP11" sqref="AP11"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1:AP6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -868,7 +853,7 @@
     <col min="38" max="38" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:40">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -989,14 +974,8 @@
       <c r="AN1" t="s">
         <v>136</v>
       </c>
-      <c r="AO1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42">
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1117,14 +1096,8 @@
       <c r="AN2" t="s">
         <v>2</v>
       </c>
-      <c r="AO2" t="s">
-        <v>144</v>
-      </c>
-      <c r="AP2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42">
+    </row>
+    <row r="3" spans="1:40">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1245,14 +1218,8 @@
       <c r="AN3" t="s">
         <v>3</v>
       </c>
-      <c r="AO3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42">
+    </row>
+    <row r="4" spans="1:40">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1322,14 +1289,8 @@
       <c r="AN4" t="s">
         <v>4</v>
       </c>
-      <c r="AO4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42">
+    </row>
+    <row r="5" spans="1:40">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1450,14 +1411,8 @@
       <c r="AN5" t="s">
         <v>53</v>
       </c>
-      <c r="AO5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42">
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1578,11 +1533,8 @@
       <c r="AN6" t="s">
         <v>54</v>
       </c>
-      <c r="AO6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42">
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1650,7 +1602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:40">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1769,7 +1721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:40">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1888,7 +1840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:40">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1956,7 +1908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:40">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2075,7 +2027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:40">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2194,7 +2146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:40">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2262,7 +2214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:40">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2381,7 +2333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:40">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2500,7 +2452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:40">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5112,10 +5064,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6013,40 +5965,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="146">
   <si>
     <t>text</t>
   </si>
@@ -452,6 +452,15 @@
   </si>
   <si>
     <t>org</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>dsd</t>
+  </si>
+  <si>
+    <t>dssss</t>
   </si>
 </sst>
 </file>
@@ -822,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1:AP6"/>
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -853,7 +862,7 @@
     <col min="38" max="38" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -974,8 +983,11 @@
       <c r="AN1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:40">
+      <c r="AO1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1096,8 +1108,11 @@
       <c r="AN2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:40">
+      <c r="AO2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1218,8 +1233,11 @@
       <c r="AN3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:40">
+      <c r="AO3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1289,8 +1307,11 @@
       <c r="AN4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:40">
+      <c r="AO4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1412,7 +1433,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:41">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1534,7 +1555,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:41">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1602,7 +1623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:41">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1721,7 +1742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:41">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1840,7 +1861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:41">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1908,7 +1929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:41">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2027,7 +2048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:41">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2146,7 +2167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:41">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2214,7 +2235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:41">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2333,7 +2354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:41">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2452,7 +2473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:41">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5064,10 +5085,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5965,6 +5986,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="1:15">
+      <c r="A44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16440" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TypeTest" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="145">
   <si>
     <t>text</t>
   </si>
@@ -452,6 +452,12 @@
   </si>
   <si>
     <t>org</t>
+  </si>
+  <si>
+    <t>Boolean true/false value</t>
+  </si>
+  <si>
+    <t>Boolean true/false value or no value</t>
   </si>
 </sst>
 </file>
@@ -824,36 +830,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+    <sheetView topLeftCell="AG1" workbookViewId="0">
       <selection activeCell="AM39" sqref="AM39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="24" customWidth="1"/>
-    <col min="35" max="35" width="23.5" customWidth="1"/>
-    <col min="36" max="36" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.33203125" customWidth="1"/>
+    <col min="35" max="35" width="23.42578125" customWidth="1"/>
+    <col min="36" max="36" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -975,7 +981,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1290,7 +1296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1721,7 +1727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1840,7 +1846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1908,7 +1914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2027,7 +2033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2214,7 +2220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2452,7 +2458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2520,7 +2526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2588,7 +2594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2707,7 +2713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2826,7 +2832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2894,7 +2900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3013,7 +3019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3129,7 +3135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3194,7 +3200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3310,7 +3316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3426,7 +3432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3491,7 +3497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3607,7 +3613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3723,7 +3729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3788,7 +3794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3904,7 +3910,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4020,7 +4026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4085,7 +4091,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4201,7 +4207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4317,7 +4323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4382,7 +4388,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4447,7 +4453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4563,7 +4569,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4679,7 +4685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4889,9 +4895,9 @@
       <selection activeCell="A7" sqref="A7:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4899,7 +4905,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4907,7 +4913,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4915,7 +4921,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4923,7 +4929,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -4931,7 +4937,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -4957,12 +4963,12 @@
       <selection activeCell="A5" sqref="A5:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -4973,7 +4979,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -4984,7 +4990,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>141</v>
       </c>
@@ -4992,7 +4998,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -5015,14 +5021,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5033,7 +5039,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -5044,7 +5050,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -5064,24 +5070,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5127,8 +5134,11 @@
       <c r="O1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5148,7 +5158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -5171,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -5191,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -5210,8 +5220,11 @@
       <c r="M5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5230,8 +5243,11 @@
       <c r="M6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -5251,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5271,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5291,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -5308,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -5325,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5345,7 +5361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -5365,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -5382,7 +5398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5402,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5419,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -5442,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -5462,7 +5478,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -5479,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -5499,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -5519,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -5536,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -5556,7 +5572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -5573,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -5596,7 +5612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -5619,7 +5635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5636,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -5653,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -5679,7 +5695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -5705,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -5728,7 +5744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -5748,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -5768,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -5785,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -5802,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -5819,7 +5835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -5842,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -5862,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -5882,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -5902,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -5922,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -5942,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>136</v>
       </c>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TypeTest" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="152">
   <si>
     <t>text</t>
   </si>
@@ -452,6 +452,33 @@
   </si>
   <si>
     <t>org</t>
+  </si>
+  <si>
+    <t>xcomputedint</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>xcomputedxref</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>{Chromosome: xstring, Position: xint}</t>
+  </si>
+  <si>
+    <t>entity for the computed attributes</t>
+  </si>
+  <si>
+    <t>Chromosome</t>
+  </si>
+  <si>
+    <t>Position</t>
   </si>
 </sst>
 </file>
@@ -500,9 +527,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -515,13 +544,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -824,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AM39" sqref="AM39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5009,20 +5040,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5032,8 +5063,11 @@
       <c r="C1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -5044,7 +5078,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -5052,8 +5086,17 @@
         <v>138</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5064,24 +5107,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5127,8 +5171,11 @@
       <c r="O1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5148,7 +5195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -5171,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -5191,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -5211,7 +5258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5231,7 +5278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -5251,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5271,7 +5318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5291,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -5308,7 +5355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -5325,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5345,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -5365,7 +5412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -5382,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5402,7 +5449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5748,7 +5795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -5768,7 +5815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -5785,7 +5832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -5802,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -5819,7 +5866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -5842,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -5862,7 +5909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -5882,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -5902,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -5922,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -5942,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -5963,6 +6010,89 @@
       </c>
       <c r="O43" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="P44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="P45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TypeTest" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="152">
   <si>
     <t>text</t>
   </si>
@@ -470,13 +470,22 @@
   </si>
   <si>
     <t>{Chromosome: xstring, Position: xint}</t>
+  </si>
+  <si>
+    <t>Chromosome</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Location entity for the attribute mapping attributes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +509,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -518,7 +534,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -528,13 +544,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -542,6 +560,7 @@
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -5029,17 +5048,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5073,6 +5092,14 @@
       </c>
       <c r="B3" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -5088,10 +5115,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6042,6 +6069,62 @@
         <v>29</v>
       </c>
     </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TypeTest" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="151">
   <si>
     <t>text</t>
   </si>
@@ -470,13 +470,19 @@
   </si>
   <si>
     <t>{Chromosome: xstring, Position: xint}</t>
+  </si>
+  <si>
+    <t>Chromosome</t>
+  </si>
+  <si>
+    <t>Position</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +502,13 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -529,10 +542,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5029,10 +5043,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5073,6 +5087,11 @@
       </c>
       <c r="B3" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5088,10 +5107,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6042,6 +6061,62 @@
         <v>29</v>
       </c>
     </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14625"/>
   </bookViews>
   <sheets>
     <sheet name="TypeTest" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="154">
   <si>
     <t>text</t>
   </si>
@@ -476,6 +476,15 @@
   </si>
   <si>
     <t>Position</t>
+  </si>
+  <si>
+    <t>xcategoricalmref_value</t>
+  </si>
+  <si>
+    <t>xcategoricalmrefnillable_value</t>
+  </si>
+  <si>
+    <t>categorical_mref</t>
   </si>
 </sst>
 </file>
@@ -856,38 +865,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AP39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24" customWidth="1"/>
-    <col min="35" max="35" width="23.5" customWidth="1"/>
-    <col min="36" max="36" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.33203125" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24" customWidth="1"/>
+    <col min="37" max="37" width="23.42578125" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -970,46 +982,52 @@
         <v>36</v>
       </c>
       <c r="AB1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD1" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>95</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>96</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>98</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>100</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1098,40 +1116,46 @@
         <v>2</v>
       </c>
       <c r="AD2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" t="s">
         <v>16</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>0</v>
-      </c>
       <c r="AH2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" t="s">
         <v>97</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>97</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>16</v>
       </c>
-      <c r="AM2">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1220,40 +1244,46 @@
         <v>13</v>
       </c>
       <c r="AD3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="s">
         <v>17</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>17</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>15</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AI3" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL3" t="s">
         <v>97</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AM3" t="s">
         <v>97</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AN3" t="s">
         <v>17</v>
       </c>
-      <c r="AM3">
-        <v>2</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+      <c r="AO3">
+        <v>2</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1300,31 +1330,34 @@
         <v>14</v>
       </c>
       <c r="AD4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" t="s">
         <v>18</v>
       </c>
-      <c r="AF4" t="s">
-        <v>0</v>
-      </c>
       <c r="AH4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>4</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>97</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AM4" t="s">
         <v>97</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AN4" t="s">
         <v>18</v>
       </c>
-      <c r="AM4">
-        <v>3</v>
-      </c>
-      <c r="AN4" t="s">
+      <c r="AO4">
+        <v>3</v>
+      </c>
+      <c r="AP4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1413,40 +1446,46 @@
         <v>2</v>
       </c>
       <c r="AD5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF5" t="s">
         <v>16</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>16</v>
       </c>
-      <c r="AF5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>0</v>
-      </c>
       <c r="AH5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL5" t="s">
         <v>97</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AM5" t="s">
         <v>97</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AN5" t="s">
         <v>101</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <v>4</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AP5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1535,40 +1574,46 @@
         <v>13</v>
       </c>
       <c r="AD6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="s">
         <v>17</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>17</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>15</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AI6" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL6" t="s">
         <v>97</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AM6" t="s">
         <v>97</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AN6" t="s">
         <v>102</v>
       </c>
-      <c r="AM6">
-        <v>5</v>
-      </c>
-      <c r="AN6" t="s">
+      <c r="AO6">
+        <v>5</v>
+      </c>
+      <c r="AP6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1615,28 +1660,31 @@
         <v>14</v>
       </c>
       <c r="AD7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF7" t="s">
         <v>18</v>
       </c>
-      <c r="AF7" t="s">
-        <v>0</v>
-      </c>
       <c r="AH7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>4</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AL7" t="s">
         <v>97</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AM7" t="s">
         <v>97</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AN7" t="s">
         <v>103</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1725,37 +1773,43 @@
         <v>2</v>
       </c>
       <c r="AD8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF8" t="s">
         <v>16</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>16</v>
       </c>
-      <c r="AF8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>0</v>
-      </c>
       <c r="AH8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL8" t="s">
         <v>97</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AM8" t="s">
         <v>97</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AN8" t="s">
         <v>104</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1844,37 +1898,43 @@
         <v>13</v>
       </c>
       <c r="AD9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="s">
         <v>17</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AG9" t="s">
         <v>17</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>15</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AI9" t="s">
         <v>15</v>
       </c>
-      <c r="AH9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL9" t="s">
         <v>97</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AM9" t="s">
         <v>97</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AN9" t="s">
         <v>105</v>
       </c>
-      <c r="AM9">
+      <c r="AO9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1921,28 +1981,31 @@
         <v>14</v>
       </c>
       <c r="AD10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF10" t="s">
         <v>18</v>
       </c>
-      <c r="AF10" t="s">
-        <v>0</v>
-      </c>
       <c r="AH10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>4</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AL10" t="s">
         <v>97</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AM10" t="s">
         <v>97</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AN10" t="s">
         <v>106</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2031,37 +2094,43 @@
         <v>2</v>
       </c>
       <c r="AD11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF11" t="s">
         <v>16</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AG11" t="s">
         <v>16</v>
       </c>
-      <c r="AF11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>0</v>
-      </c>
       <c r="AH11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL11" t="s">
         <v>97</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AM11" t="s">
         <v>97</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AN11" t="s">
         <v>107</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2150,37 +2219,43 @@
         <v>13</v>
       </c>
       <c r="AD12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="s">
         <v>17</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AG12" t="s">
         <v>17</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>15</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AI12" t="s">
         <v>15</v>
       </c>
-      <c r="AH12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL12" t="s">
         <v>97</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AM12" t="s">
         <v>97</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AN12" t="s">
         <v>108</v>
       </c>
-      <c r="AM12">
+      <c r="AO12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2227,28 +2302,31 @@
         <v>14</v>
       </c>
       <c r="AD13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF13" t="s">
         <v>18</v>
       </c>
-      <c r="AF13" t="s">
-        <v>0</v>
-      </c>
       <c r="AH13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>4</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AL13" t="s">
         <v>97</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AM13" t="s">
         <v>97</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AN13" t="s">
         <v>109</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2337,37 +2415,43 @@
         <v>2</v>
       </c>
       <c r="AD14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF14" t="s">
         <v>16</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AG14" t="s">
         <v>16</v>
       </c>
-      <c r="AF14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>0</v>
-      </c>
       <c r="AH14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL14" t="s">
         <v>97</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AM14" t="s">
         <v>97</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AN14" t="s">
         <v>110</v>
       </c>
-      <c r="AM14">
+      <c r="AO14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2456,37 +2540,43 @@
         <v>13</v>
       </c>
       <c r="AD15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="s">
         <v>17</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AG15" t="s">
         <v>17</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>15</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AI15" t="s">
         <v>15</v>
       </c>
-      <c r="AH15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL15" t="s">
         <v>97</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AM15" t="s">
         <v>97</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AN15" t="s">
         <v>111</v>
       </c>
-      <c r="AM15">
+      <c r="AO15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2533,28 +2623,31 @@
         <v>14</v>
       </c>
       <c r="AD16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF16" t="s">
         <v>18</v>
       </c>
-      <c r="AF16" t="s">
-        <v>0</v>
-      </c>
       <c r="AH16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>4</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AL16" t="s">
         <v>97</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AM16" t="s">
         <v>97</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AN16" t="s">
         <v>112</v>
       </c>
-      <c r="AM16">
+      <c r="AO16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2601,28 +2694,31 @@
         <v>14</v>
       </c>
       <c r="AD17" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF17" t="s">
         <v>18</v>
       </c>
-      <c r="AF17" t="s">
-        <v>0</v>
-      </c>
       <c r="AH17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>4</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AL17" t="s">
         <v>97</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AM17" t="s">
         <v>97</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AN17" t="s">
         <v>113</v>
       </c>
-      <c r="AM17">
+      <c r="AO17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2711,37 +2807,43 @@
         <v>2</v>
       </c>
       <c r="AD18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF18" t="s">
         <v>16</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AG18" t="s">
         <v>16</v>
       </c>
-      <c r="AF18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>0</v>
-      </c>
       <c r="AH18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL18" t="s">
         <v>97</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AM18" t="s">
         <v>97</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AN18" t="s">
         <v>114</v>
       </c>
-      <c r="AM18">
+      <c r="AO18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2830,37 +2932,43 @@
         <v>13</v>
       </c>
       <c r="AD19" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AG19" t="s">
         <v>17</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>15</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AI19" t="s">
         <v>15</v>
       </c>
-      <c r="AH19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL19" t="s">
         <v>97</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AM19" t="s">
         <v>97</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AN19" t="s">
         <v>115</v>
       </c>
-      <c r="AM19">
+      <c r="AO19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2907,28 +3015,31 @@
         <v>14</v>
       </c>
       <c r="AD20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF20" t="s">
         <v>18</v>
       </c>
-      <c r="AF20" t="s">
-        <v>0</v>
-      </c>
       <c r="AH20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>4</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AL20" t="s">
         <v>97</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AM20" t="s">
         <v>97</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AN20" t="s">
         <v>116</v>
       </c>
-      <c r="AM20">
+      <c r="AO20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3017,37 +3128,43 @@
         <v>2</v>
       </c>
       <c r="AD21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF21" t="s">
         <v>16</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AG21" t="s">
         <v>16</v>
       </c>
-      <c r="AF21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>0</v>
-      </c>
       <c r="AH21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL21" t="s">
         <v>97</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AM21" t="s">
         <v>97</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AN21" t="s">
         <v>117</v>
       </c>
-      <c r="AM21">
+      <c r="AO21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3136,34 +3253,40 @@
         <v>13</v>
       </c>
       <c r="AD22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF22" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AG22" t="s">
         <v>17</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>15</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AI22" t="s">
         <v>15</v>
       </c>
-      <c r="AH22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL22" t="s">
         <v>97</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AN22" t="s">
         <v>118</v>
       </c>
-      <c r="AM22">
+      <c r="AO22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3210,25 +3333,28 @@
         <v>14</v>
       </c>
       <c r="AD23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF23" t="s">
         <v>18</v>
       </c>
-      <c r="AF23" t="s">
-        <v>0</v>
-      </c>
       <c r="AH23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>4</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AL23" t="s">
         <v>97</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AN23" t="s">
         <v>119</v>
       </c>
-      <c r="AM23">
+      <c r="AO23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3317,34 +3443,40 @@
         <v>2</v>
       </c>
       <c r="AD24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF24" t="s">
         <v>16</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AG24" t="s">
         <v>16</v>
       </c>
-      <c r="AF24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>0</v>
-      </c>
       <c r="AH24" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI24" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL24" t="s">
         <v>97</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AN24" t="s">
         <v>120</v>
       </c>
-      <c r="AM24">
+      <c r="AO24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3433,34 +3565,40 @@
         <v>13</v>
       </c>
       <c r="AD25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="s">
         <v>17</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AG25" t="s">
         <v>17</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>15</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AI25" t="s">
         <v>15</v>
       </c>
-      <c r="AH25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL25" t="s">
         <v>97</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AN25" t="s">
         <v>121</v>
       </c>
-      <c r="AM25">
+      <c r="AO25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3507,25 +3645,28 @@
         <v>14</v>
       </c>
       <c r="AD26" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF26" t="s">
         <v>18</v>
       </c>
-      <c r="AF26" t="s">
-        <v>0</v>
-      </c>
       <c r="AH26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>4</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AL26" t="s">
         <v>97</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AN26" t="s">
         <v>122</v>
       </c>
-      <c r="AM26">
+      <c r="AO26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3614,34 +3755,40 @@
         <v>2</v>
       </c>
       <c r="AD27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF27" t="s">
         <v>16</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AG27" t="s">
         <v>16</v>
       </c>
-      <c r="AF27" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>0</v>
-      </c>
       <c r="AH27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL27" t="s">
         <v>97</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AN27" t="s">
         <v>123</v>
       </c>
-      <c r="AM27">
+      <c r="AO27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3730,34 +3877,40 @@
         <v>13</v>
       </c>
       <c r="AD28" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF28" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AG28" t="s">
         <v>17</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AH28" t="s">
         <v>15</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AI28" t="s">
         <v>15</v>
       </c>
-      <c r="AH28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL28" t="s">
         <v>97</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AN28" t="s">
         <v>124</v>
       </c>
-      <c r="AM28">
+      <c r="AO28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3804,25 +3957,28 @@
         <v>14</v>
       </c>
       <c r="AD29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF29" t="s">
         <v>18</v>
       </c>
-      <c r="AF29" t="s">
-        <v>0</v>
-      </c>
       <c r="AH29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="s">
         <v>4</v>
       </c>
-      <c r="AJ29" t="s">
+      <c r="AL29" t="s">
         <v>97</v>
       </c>
-      <c r="AL29" t="s">
+      <c r="AN29" t="s">
         <v>125</v>
       </c>
-      <c r="AM29">
+      <c r="AO29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3911,34 +4067,40 @@
         <v>2</v>
       </c>
       <c r="AD30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF30" t="s">
         <v>16</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AG30" t="s">
         <v>16</v>
       </c>
-      <c r="AF30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>0</v>
-      </c>
       <c r="AH30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL30" t="s">
         <v>97</v>
       </c>
-      <c r="AL30" t="s">
+      <c r="AN30" t="s">
         <v>126</v>
       </c>
-      <c r="AM30">
+      <c r="AO30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4027,34 +4189,40 @@
         <v>13</v>
       </c>
       <c r="AD31" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF31" t="s">
         <v>17</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AG31" t="s">
         <v>17</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AH31" t="s">
         <v>15</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AI31" t="s">
         <v>15</v>
       </c>
-      <c r="AH31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL31" t="s">
         <v>97</v>
       </c>
-      <c r="AL31" t="s">
+      <c r="AN31" t="s">
         <v>127</v>
       </c>
-      <c r="AM31">
+      <c r="AO31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4101,25 +4269,28 @@
         <v>14</v>
       </c>
       <c r="AD32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF32" t="s">
         <v>18</v>
       </c>
-      <c r="AF32" t="s">
-        <v>0</v>
-      </c>
       <c r="AH32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="s">
         <v>4</v>
       </c>
-      <c r="AJ32" t="s">
+      <c r="AL32" t="s">
         <v>97</v>
       </c>
-      <c r="AL32" t="s">
+      <c r="AN32" t="s">
         <v>128</v>
       </c>
-      <c r="AM32">
+      <c r="AO32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4208,34 +4379,40 @@
         <v>2</v>
       </c>
       <c r="AD33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF33" t="s">
         <v>16</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AG33" t="s">
         <v>16</v>
       </c>
-      <c r="AF33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>0</v>
-      </c>
       <c r="AH33" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL33" t="s">
         <v>97</v>
       </c>
-      <c r="AL33" t="s">
+      <c r="AN33" t="s">
         <v>129</v>
       </c>
-      <c r="AM33">
+      <c r="AO33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4324,34 +4501,40 @@
         <v>13</v>
       </c>
       <c r="AD34" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF34" t="s">
         <v>17</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AG34" t="s">
         <v>17</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AH34" t="s">
         <v>15</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AI34" t="s">
         <v>15</v>
       </c>
-      <c r="AH34" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL34" t="s">
         <v>97</v>
       </c>
-      <c r="AL34" t="s">
+      <c r="AN34" t="s">
         <v>130</v>
       </c>
-      <c r="AM34">
+      <c r="AO34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4398,25 +4581,28 @@
         <v>14</v>
       </c>
       <c r="AD35" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF35" t="s">
         <v>18</v>
       </c>
-      <c r="AF35" t="s">
-        <v>0</v>
-      </c>
       <c r="AH35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="s">
         <v>4</v>
       </c>
-      <c r="AJ35" t="s">
+      <c r="AL35" t="s">
         <v>97</v>
       </c>
-      <c r="AL35" t="s">
+      <c r="AN35" t="s">
         <v>131</v>
       </c>
-      <c r="AM35">
+      <c r="AO35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4463,25 +4649,28 @@
         <v>14</v>
       </c>
       <c r="AD36" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF36" t="s">
         <v>18</v>
       </c>
-      <c r="AF36" t="s">
-        <v>0</v>
-      </c>
       <c r="AH36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="s">
         <v>4</v>
       </c>
-      <c r="AJ36" t="s">
+      <c r="AL36" t="s">
         <v>97</v>
       </c>
-      <c r="AL36" t="s">
+      <c r="AN36" t="s">
         <v>132</v>
       </c>
-      <c r="AM36">
+      <c r="AO36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4570,34 +4759,40 @@
         <v>2</v>
       </c>
       <c r="AD37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF37" t="s">
         <v>16</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AG37" t="s">
         <v>16</v>
       </c>
-      <c r="AF37" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>0</v>
-      </c>
       <c r="AH37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL37" t="s">
         <v>97</v>
       </c>
-      <c r="AL37" t="s">
+      <c r="AN37" t="s">
         <v>133</v>
       </c>
-      <c r="AM37">
+      <c r="AO37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4686,34 +4881,40 @@
         <v>13</v>
       </c>
       <c r="AD38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF38" t="s">
         <v>17</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AG38" t="s">
         <v>17</v>
       </c>
-      <c r="AF38" t="s">
+      <c r="AH38" t="s">
         <v>15</v>
       </c>
-      <c r="AG38" t="s">
+      <c r="AI38" t="s">
         <v>15</v>
       </c>
-      <c r="AH38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL38" t="s">
         <v>97</v>
       </c>
-      <c r="AL38" t="s">
+      <c r="AN38" t="s">
         <v>134</v>
       </c>
-      <c r="AM38">
+      <c r="AO38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4760,21 +4961,24 @@
         <v>14</v>
       </c>
       <c r="AD39" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF39" t="s">
         <v>18</v>
       </c>
-      <c r="AF39" t="s">
-        <v>0</v>
-      </c>
       <c r="AH39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="s">
         <v>4</v>
       </c>
-      <c r="AJ39" t="s">
+      <c r="AL39" t="s">
         <v>97</v>
       </c>
-      <c r="AL39" t="s">
+      <c r="AN39" t="s">
         <v>135</v>
       </c>
-      <c r="AM39">
+      <c r="AO39">
         <v>38</v>
       </c>
     </row>
@@ -4923,9 +5127,9 @@
       <selection activeCell="A7" sqref="A7:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4933,7 +5137,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4941,7 +5145,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4949,7 +5153,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4957,7 +5161,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -4965,7 +5169,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -4991,12 +5195,12 @@
       <selection activeCell="A5" sqref="A5:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5007,7 +5211,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -5018,7 +5222,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>141</v>
       </c>
@@ -5026,7 +5230,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -5049,14 +5253,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5070,7 +5274,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -5081,7 +5285,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -5089,7 +5293,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -5107,25 +5311,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5175,7 +5379,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5195,7 +5399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -5218,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -5238,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -5258,7 +5462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5278,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -5298,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -5318,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5338,7 +5542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -5355,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -5372,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5392,7 +5596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -5412,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -5429,7 +5633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5449,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5466,7 +5670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -5489,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -5509,7 +5713,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -5526,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -5546,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -5566,7 +5770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -5583,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -5603,7 +5807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -5620,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -5643,7 +5847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -5666,7 +5870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -5683,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -5700,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -5726,7 +5930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -5752,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -5775,7 +5979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -5795,15 +5999,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
         <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>153</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -5815,15 +6022,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
         <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>153</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -5832,15 +6042,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -5848,16 +6058,19 @@
       <c r="F35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -5866,18 +6079,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -5885,22 +6095,16 @@
       <c r="F37" t="b">
         <v>0</v>
       </c>
-      <c r="M37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
         <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -5909,15 +6113,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
         <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -5925,19 +6132,22 @@
       <c r="F39" t="b">
         <v>0</v>
       </c>
-      <c r="N39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="M39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
         <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -5945,13 +6155,10 @@
       <c r="F40" t="b">
         <v>1</v>
       </c>
-      <c r="N40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
         <v>57</v>
@@ -5965,157 +6172,197 @@
       <c r="F41" t="b">
         <v>0</v>
       </c>
-      <c r="O41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="N41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
         <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="b">
-        <v>0</v>
-      </c>
-      <c r="O42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="b">
-        <v>1</v>
-      </c>
-      <c r="P44" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="O44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B45" t="s">
         <v>57</v>
       </c>
       <c r="C45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="P46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
         <v>67</v>
       </c>
-      <c r="E45" t="b">
-        <v>0</v>
-      </c>
-      <c r="F45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="b">
-        <v>1</v>
-      </c>
-      <c r="P45" t="s">
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="P47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="3" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="3" t="s">
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16440" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TypeTest" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="173">
   <si>
     <t>text</t>
   </si>
@@ -539,6 +539,12 @@
 print(y)              # print (vector) y
 mean(y)               # Calculate average (arithmetic mean) of (vector) y; result is scalar
 var(y)                # Calculate sample variance</t>
+  </si>
+  <si>
+    <t>xintcomputed</t>
+  </si>
+  <si>
+    <t>expression</t>
   </si>
 </sst>
 </file>
@@ -914,9 +920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK39" workbookViewId="0">
-      <selection activeCell="AU2" sqref="AU2:AW39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7891,10 +7895,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7907,9 +7911,10 @@
     <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -7958,8 +7963,11 @@
       <c r="P1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7979,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -8002,7 +8010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -8022,7 +8030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -8045,7 +8053,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -8068,7 +8076,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -8094,7 +8102,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -8114,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -8134,7 +8142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>148</v>
       </c>
@@ -8157,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -8177,7 +8185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -8194,7 +8202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -8217,7 +8225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -8234,7 +8242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -8254,7 +8262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -8600,7 +8608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -8617,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>156</v>
       </c>
@@ -8640,7 +8648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -8663,7 +8671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -8686,7 +8694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -8712,26 +8720,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="B38" t="s">
         <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
         <v>57</v>
@@ -8743,12 +8754,12 @@
         <v>0</v>
       </c>
       <c r="F39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
         <v>57</v>
@@ -8760,15 +8771,12 @@
         <v>0</v>
       </c>
       <c r="F40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="B41" t="s">
         <v>57</v>
@@ -8782,19 +8790,13 @@
       <c r="F41" t="b">
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>10</v>
-      </c>
-      <c r="M41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
         <v>57</v>
@@ -8806,7 +8808,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -8818,9 +8820,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
@@ -8832,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -8840,25 +8842,19 @@
       <c r="I43">
         <v>10</v>
       </c>
-      <c r="L43" t="b">
-        <v>1</v>
-      </c>
       <c r="M43" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="B44" t="s">
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -8866,13 +8862,22 @@
       <c r="F44" t="b">
         <v>0</v>
       </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
       <c r="M44" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
         <v>57</v>
@@ -8887,12 +8892,15 @@
         <v>0</v>
       </c>
       <c r="F45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
         <v>57</v>
@@ -8907,24 +8915,18 @@
         <v>0</v>
       </c>
       <c r="F46" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" t="b">
-        <v>1</v>
-      </c>
-      <c r="M46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B47" t="s">
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
         <v>59</v>
@@ -8935,13 +8937,16 @@
       <c r="F47" t="b">
         <v>0</v>
       </c>
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
       <c r="M47" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
         <v>57</v>
@@ -8956,12 +8961,15 @@
         <v>0</v>
       </c>
       <c r="F48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
         <v>57</v>
@@ -8976,24 +8984,21 @@
         <v>0</v>
       </c>
       <c r="F49" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" t="b">
-        <v>1</v>
-      </c>
-      <c r="M49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>165</v>
+      </c>
+      <c r="D50" t="s">
+        <v>59</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -9001,10 +9006,16 @@
       <c r="F50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B51" t="s">
         <v>57</v>
@@ -9016,12 +9027,12 @@
         <v>0</v>
       </c>
       <c r="F51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
@@ -9033,21 +9044,18 @@
         <v>0</v>
       </c>
       <c r="F52" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="B53" t="s">
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
@@ -9055,13 +9063,13 @@
       <c r="F53" t="b">
         <v>0</v>
       </c>
-      <c r="M53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
         <v>57</v>
@@ -9073,12 +9081,15 @@
         <v>0</v>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
@@ -9090,24 +9101,18 @@
         <v>0</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" t="b">
-        <v>1</v>
-      </c>
-      <c r="M55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
@@ -9115,10 +9120,16 @@
       <c r="F56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
@@ -9130,12 +9141,12 @@
         <v>0</v>
       </c>
       <c r="F57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
@@ -9147,24 +9158,18 @@
         <v>0</v>
       </c>
       <c r="F58" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="B59" t="s">
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
@@ -9172,13 +9177,13 @@
       <c r="F59" t="b">
         <v>0</v>
       </c>
-      <c r="M59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
         <v>57</v>
@@ -9193,12 +9198,15 @@
         <v>0</v>
       </c>
       <c r="F60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="B61" t="s">
         <v>57</v>
@@ -9213,24 +9221,21 @@
         <v>0</v>
       </c>
       <c r="F61" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" t="b">
-        <v>1</v>
-      </c>
-      <c r="M61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="B62" t="s">
         <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>78</v>
+      </c>
+      <c r="D62" t="s">
+        <v>59</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
@@ -9238,13 +9243,16 @@
       <c r="F62" t="b">
         <v>0</v>
       </c>
-      <c r="N62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
         <v>57</v>
@@ -9256,15 +9264,15 @@
         <v>0</v>
       </c>
       <c r="F63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B64" t="s">
         <v>57</v>
@@ -9276,21 +9284,21 @@
         <v>0</v>
       </c>
       <c r="F64" t="b">
-        <v>0</v>
-      </c>
-      <c r="O64" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="N64" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
         <v>57</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
@@ -9304,24 +9312,44 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B66" t="s">
         <v>57</v>
       </c>
       <c r="C66" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="O66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" t="s">
         <v>78</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>59</v>
       </c>
-      <c r="E66" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" t="b">
-        <v>1</v>
-      </c>
-      <c r="O66" t="b">
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+      <c r="O67" t="b">
         <v>1</v>
       </c>
     </row>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" activeTab="4"/>
+    <workbookView xWindow="4940" yWindow="1660" windowWidth="25600" windowHeight="14620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TypeTest" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="157">
   <si>
     <t>text</t>
   </si>
@@ -476,6 +476,24 @@
   </si>
   <si>
     <t>Position</t>
+  </si>
+  <si>
+    <t>xcompound</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>xcompound_int</t>
+  </si>
+  <si>
+    <t>xcompound_string</t>
+  </si>
+  <si>
+    <t>compound strings are here</t>
+  </si>
+  <si>
+    <t>partOfAttribute</t>
   </si>
 </sst>
 </file>
@@ -531,9 +549,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -548,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -556,6 +575,7 @@
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -856,38 +876,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AP39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24" customWidth="1"/>
-    <col min="35" max="35" width="23.5" customWidth="1"/>
-    <col min="36" max="36" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24" customWidth="1"/>
+    <col min="37" max="37" width="23.5" customWidth="1"/>
+    <col min="38" max="38" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:42">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -898,118 +920,124 @@
         <v>45</v>
       </c>
       <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>49</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>50</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>95</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>96</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>98</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>100</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:42">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1019,119 +1047,125 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>1.23</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>1.23</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T2">
-        <v>5</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
       <c r="V2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>2</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>2</v>
+      </c>
+      <c r="AC2">
         <v>2</v>
       </c>
       <c r="AD2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" t="s">
         <v>16</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>0</v>
-      </c>
       <c r="AH2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" t="s">
         <v>97</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>97</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>16</v>
       </c>
-      <c r="AM2">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1141,190 +1175,202 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>4.5599999999999996</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>9</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>9</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
       <c r="V3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA3">
-        <v>3</v>
-      </c>
-      <c r="AB3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <v>3</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AF3" t="s">
         <v>17</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>17</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>15</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AI3" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL3" t="s">
         <v>97</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AM3" t="s">
         <v>97</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AN3" t="s">
         <v>17</v>
       </c>
-      <c r="AM3">
-        <v>2</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+      <c r="AO3">
+        <v>2</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>7.89</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>10</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
       <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="X4">
         <v>4</v>
       </c>
-      <c r="X4">
-        <v>3</v>
-      </c>
       <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AB4">
         <v>4</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>18</v>
       </c>
-      <c r="AF4" t="s">
-        <v>0</v>
-      </c>
       <c r="AH4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>4</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>97</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AM4" t="s">
         <v>97</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AN4" t="s">
         <v>18</v>
       </c>
-      <c r="AM4">
-        <v>3</v>
-      </c>
-      <c r="AN4" t="s">
+      <c r="AO4">
+        <v>3</v>
+      </c>
+      <c r="AP4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:42">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1334,119 +1380,125 @@
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
+      <c r="D5">
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>1.23</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>1.23</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>8</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>8</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>11</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
       <c r="V5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>2</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5">
         <v>2</v>
       </c>
       <c r="AD5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF5" t="s">
         <v>16</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>16</v>
       </c>
-      <c r="AF5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>0</v>
-      </c>
       <c r="AH5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL5" t="s">
         <v>97</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AM5" t="s">
         <v>97</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AN5" t="s">
         <v>101</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <v>4</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AP5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:42">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1456,187 +1508,199 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
+      <c r="D6">
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>4.5599999999999996</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>9</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>9</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6">
-        <v>2</v>
-      </c>
       <c r="V6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA6">
-        <v>3</v>
-      </c>
-      <c r="AB6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>3</v>
+      </c>
+      <c r="AC6">
+        <v>3</v>
+      </c>
+      <c r="AD6" t="s">
         <v>13</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>13</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AF6" t="s">
         <v>17</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>17</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>15</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AI6" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL6" t="s">
         <v>97</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AM6" t="s">
         <v>97</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AN6" t="s">
         <v>102</v>
       </c>
-      <c r="AM6">
-        <v>5</v>
-      </c>
-      <c r="AN6" t="s">
+      <c r="AO6">
+        <v>5</v>
+      </c>
+      <c r="AP6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:42">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>7.89</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>10</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
       <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="X7">
         <v>4</v>
       </c>
-      <c r="X7">
-        <v>3</v>
-      </c>
       <c r="Z7">
+        <v>3</v>
+      </c>
+      <c r="AB7">
         <v>4</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>14</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AF7" t="s">
         <v>18</v>
       </c>
-      <c r="AF7" t="s">
-        <v>0</v>
-      </c>
       <c r="AH7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>4</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AL7" t="s">
         <v>97</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AM7" t="s">
         <v>97</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AN7" t="s">
         <v>103</v>
       </c>
-      <c r="AM7">
+      <c r="AO7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:42">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1646,116 +1710,122 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>2</v>
+      <c r="D8">
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>1.23</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>1.23</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>8</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>8</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="U8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
       <c r="V8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>2</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
+      <c r="AC8">
         <v>2</v>
       </c>
       <c r="AD8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF8" t="s">
         <v>16</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>16</v>
       </c>
-      <c r="AF8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>0</v>
-      </c>
       <c r="AH8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL8" t="s">
         <v>97</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AM8" t="s">
         <v>97</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AN8" t="s">
         <v>104</v>
       </c>
-      <c r="AM8">
+      <c r="AO8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:42">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1765,184 +1835,196 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>3</v>
+      <c r="D9">
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>4.5599999999999996</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>9</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>9</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
       <c r="V9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA9">
-        <v>3</v>
-      </c>
-      <c r="AB9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9">
+        <v>3</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AD9" t="s">
         <v>13</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>13</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AF9" t="s">
         <v>17</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AG9" t="s">
         <v>17</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>15</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AI9" t="s">
         <v>15</v>
       </c>
-      <c r="AH9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL9" t="s">
         <v>97</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AM9" t="s">
         <v>97</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AN9" t="s">
         <v>105</v>
       </c>
-      <c r="AM9">
+      <c r="AO9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:42">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>7.89</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>10</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T10">
-        <v>3</v>
-      </c>
       <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="X10">
         <v>4</v>
       </c>
-      <c r="X10">
-        <v>3</v>
-      </c>
       <c r="Z10">
+        <v>3</v>
+      </c>
+      <c r="AB10">
         <v>4</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AD10" t="s">
         <v>14</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>18</v>
       </c>
-      <c r="AF10" t="s">
-        <v>0</v>
-      </c>
       <c r="AH10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>4</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AL10" t="s">
         <v>97</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AM10" t="s">
         <v>97</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AN10" t="s">
         <v>106</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:42">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1952,116 +2034,122 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>2</v>
+      <c r="D11">
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>1.23</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>1.23</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>8</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>8</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>11</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
       <c r="V11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>2</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+      <c r="AC11">
         <v>2</v>
       </c>
       <c r="AD11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF11" t="s">
         <v>16</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AG11" t="s">
         <v>16</v>
       </c>
-      <c r="AF11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>0</v>
-      </c>
       <c r="AH11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL11" t="s">
         <v>97</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AM11" t="s">
         <v>97</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AN11" t="s">
         <v>107</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:42">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2071,184 +2159,196 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>3</v>
+      <c r="D12">
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>4.5599999999999996</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>9</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>9</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>11</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T12">
-        <v>2</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
       <c r="V12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA12">
-        <v>3</v>
-      </c>
-      <c r="AB12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB12">
+        <v>3</v>
+      </c>
+      <c r="AC12">
+        <v>3</v>
+      </c>
+      <c r="AD12" t="s">
         <v>13</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AE12" t="s">
         <v>13</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>17</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AG12" t="s">
         <v>17</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>15</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AI12" t="s">
         <v>15</v>
       </c>
-      <c r="AH12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL12" t="s">
         <v>97</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AM12" t="s">
         <v>97</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AN12" t="s">
         <v>108</v>
       </c>
-      <c r="AM12">
+      <c r="AO12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:42">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>7.89</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>10</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>11</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
       <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="X13">
         <v>4</v>
       </c>
-      <c r="X13">
-        <v>3</v>
-      </c>
       <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AB13">
         <v>4</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AD13" t="s">
         <v>14</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>18</v>
       </c>
-      <c r="AF13" t="s">
-        <v>0</v>
-      </c>
       <c r="AH13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>4</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AL13" t="s">
         <v>97</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AM13" t="s">
         <v>97</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AN13" t="s">
         <v>109</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:42">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2258,116 +2358,122 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>2</v>
+      <c r="D14">
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>1.23</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>1.23</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>8</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>8</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="U14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
       <c r="V14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>2</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>2</v>
+      </c>
+      <c r="AC14">
         <v>2</v>
       </c>
       <c r="AD14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF14" t="s">
         <v>16</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AG14" t="s">
         <v>16</v>
       </c>
-      <c r="AF14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>0</v>
-      </c>
       <c r="AH14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL14" t="s">
         <v>97</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AM14" t="s">
         <v>97</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AN14" t="s">
         <v>110</v>
       </c>
-      <c r="AM14">
+      <c r="AO14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:42">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2377,252 +2483,270 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>3</v>
+      <c r="D15">
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>4.5599999999999996</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>9</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>9</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>11</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>11</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="U15">
-        <v>2</v>
-      </c>
       <c r="V15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA15">
-        <v>3</v>
-      </c>
-      <c r="AB15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB15">
+        <v>3</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+      <c r="AD15" t="s">
         <v>13</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AE15" t="s">
         <v>13</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>17</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AG15" t="s">
         <v>17</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>15</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AI15" t="s">
         <v>15</v>
       </c>
-      <c r="AH15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL15" t="s">
         <v>97</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AM15" t="s">
         <v>97</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AN15" t="s">
         <v>111</v>
       </c>
-      <c r="AM15">
+      <c r="AO15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:42">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>7.89</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
         <v>10</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>11</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
       <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="X16">
         <v>4</v>
       </c>
-      <c r="X16">
-        <v>3</v>
-      </c>
       <c r="Z16">
+        <v>3</v>
+      </c>
+      <c r="AB16">
         <v>4</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AD16" t="s">
         <v>14</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>18</v>
       </c>
-      <c r="AF16" t="s">
-        <v>0</v>
-      </c>
       <c r="AH16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>4</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AL16" t="s">
         <v>97</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AM16" t="s">
         <v>97</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AN16" t="s">
         <v>112</v>
       </c>
-      <c r="AM16">
+      <c r="AO16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>7.89</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
         <v>8</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>11</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T17">
-        <v>3</v>
-      </c>
       <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="X17">
         <v>4</v>
       </c>
-      <c r="X17">
-        <v>3</v>
-      </c>
       <c r="Z17">
+        <v>3</v>
+      </c>
+      <c r="AB17">
         <v>4</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AD17" t="s">
         <v>14</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>18</v>
       </c>
-      <c r="AF17" t="s">
-        <v>0</v>
-      </c>
       <c r="AH17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>4</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AL17" t="s">
         <v>97</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AM17" t="s">
         <v>97</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AN17" t="s">
         <v>113</v>
       </c>
-      <c r="AM17">
+      <c r="AO17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2632,116 +2756,122 @@
       <c r="C18" t="b">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>2</v>
+      <c r="D18">
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>1.23</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>1.23</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>9</v>
       </c>
-      <c r="O18" t="s">
+      <c r="Q18" t="s">
         <v>8</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>11</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>11</v>
       </c>
-      <c r="R18" s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>2</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>2</v>
+      </c>
+      <c r="AC18">
         <v>2</v>
       </c>
       <c r="AD18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF18" t="s">
         <v>16</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AG18" t="s">
         <v>16</v>
       </c>
-      <c r="AF18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>0</v>
-      </c>
       <c r="AH18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL18" t="s">
         <v>97</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AM18" t="s">
         <v>97</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AN18" t="s">
         <v>114</v>
       </c>
-      <c r="AM18">
+      <c r="AO18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2751,184 +2881,196 @@
       <c r="C19" t="b">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
-        <v>3</v>
+      <c r="D19">
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>4.5599999999999996</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>10</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>9</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>11</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="U19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
-      <c r="U19">
-        <v>2</v>
-      </c>
       <c r="V19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA19">
-        <v>3</v>
-      </c>
-      <c r="AB19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB19">
+        <v>3</v>
+      </c>
+      <c r="AC19">
+        <v>3</v>
+      </c>
+      <c r="AD19" t="s">
         <v>13</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AE19" t="s">
         <v>13</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AF19" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AG19" t="s">
         <v>17</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>15</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AI19" t="s">
         <v>15</v>
       </c>
-      <c r="AH19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL19" t="s">
         <v>97</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AM19" t="s">
         <v>97</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AN19" t="s">
         <v>115</v>
       </c>
-      <c r="AM19">
+      <c r="AO19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>7.89</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
         <v>8</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>11</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="T20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T20">
-        <v>3</v>
-      </c>
       <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="X20">
         <v>4</v>
       </c>
-      <c r="X20">
-        <v>3</v>
-      </c>
       <c r="Z20">
+        <v>3</v>
+      </c>
+      <c r="AB20">
         <v>4</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AD20" t="s">
         <v>14</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AF20" t="s">
         <v>18</v>
       </c>
-      <c r="AF20" t="s">
-        <v>0</v>
-      </c>
       <c r="AH20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>4</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AL20" t="s">
         <v>97</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AM20" t="s">
         <v>97</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AN20" t="s">
         <v>116</v>
       </c>
-      <c r="AM20">
+      <c r="AO20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2938,116 +3080,122 @@
       <c r="C21" t="b">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
-        <v>2</v>
+      <c r="D21">
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>1.23</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>1.23</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
         <v>9</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
         <v>8</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="S21" t="s">
         <v>11</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="U21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
       <c r="V21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>2</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
+      </c>
+      <c r="AC21">
         <v>2</v>
       </c>
       <c r="AD21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF21" t="s">
         <v>16</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AG21" t="s">
         <v>16</v>
       </c>
-      <c r="AF21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>0</v>
-      </c>
       <c r="AH21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL21" t="s">
         <v>97</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AM21" t="s">
         <v>97</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AN21" t="s">
         <v>117</v>
       </c>
-      <c r="AM21">
+      <c r="AO21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3057,178 +3205,190 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>3</v>
+      <c r="D22">
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>4.5599999999999996</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N22" t="s">
+      <c r="P22" t="s">
         <v>10</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q22" t="s">
         <v>9</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>11</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>11</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="T22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="U22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>2</v>
-      </c>
       <c r="V22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA22">
-        <v>3</v>
-      </c>
-      <c r="AB22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB22">
+        <v>3</v>
+      </c>
+      <c r="AC22">
+        <v>3</v>
+      </c>
+      <c r="AD22" t="s">
         <v>13</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AE22" t="s">
         <v>13</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AF22" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AG22" t="s">
         <v>17</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>15</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AI22" t="s">
         <v>15</v>
       </c>
-      <c r="AH22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL22" t="s">
         <v>97</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AN22" t="s">
         <v>118</v>
       </c>
-      <c r="AM22">
+      <c r="AO22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>7.89</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N23" t="s">
+      <c r="P23" t="s">
         <v>8</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>11</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="T23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T23">
-        <v>3</v>
-      </c>
       <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="X23">
         <v>4</v>
       </c>
-      <c r="X23">
-        <v>3</v>
-      </c>
       <c r="Z23">
+        <v>3</v>
+      </c>
+      <c r="AB23">
         <v>4</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AD23" t="s">
         <v>14</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AF23" t="s">
         <v>18</v>
       </c>
-      <c r="AF23" t="s">
-        <v>0</v>
-      </c>
       <c r="AH23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>4</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AL23" t="s">
         <v>97</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AN23" t="s">
         <v>119</v>
       </c>
-      <c r="AM23">
+      <c r="AO23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3238,113 +3398,119 @@
       <c r="C24" t="b">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
-        <v>2</v>
+      <c r="D24">
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>1.23</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>1.23</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N24" t="s">
+      <c r="P24" t="s">
         <v>9</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" t="s">
         <v>8</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>11</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="S24" t="s">
         <v>11</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="T24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="U24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
       <c r="V24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>2</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>2</v>
+      </c>
+      <c r="AC24">
         <v>2</v>
       </c>
       <c r="AD24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF24" t="s">
         <v>16</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AG24" t="s">
         <v>16</v>
       </c>
-      <c r="AF24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>0</v>
-      </c>
       <c r="AH24" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI24" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL24" t="s">
         <v>97</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AN24" t="s">
         <v>120</v>
       </c>
-      <c r="AM24">
+      <c r="AO24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3354,178 +3520,190 @@
       <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="s">
-        <v>3</v>
+      <c r="D25">
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>4.5599999999999996</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N25" t="s">
+      <c r="P25" t="s">
         <v>10</v>
       </c>
-      <c r="O25" t="s">
+      <c r="Q25" t="s">
         <v>9</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>11</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="S25" t="s">
         <v>11</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="T25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="U25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
-      <c r="U25">
-        <v>2</v>
-      </c>
       <c r="V25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA25">
-        <v>3</v>
-      </c>
-      <c r="AB25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
+      <c r="AC25">
+        <v>3</v>
+      </c>
+      <c r="AD25" t="s">
         <v>13</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AE25" t="s">
         <v>13</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AF25" t="s">
         <v>17</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AG25" t="s">
         <v>17</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>15</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AI25" t="s">
         <v>15</v>
       </c>
-      <c r="AH25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL25" t="s">
         <v>97</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AN25" t="s">
         <v>121</v>
       </c>
-      <c r="AM25">
+      <c r="AO25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>7.89</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N26" t="s">
+      <c r="P26" t="s">
         <v>8</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>11</v>
       </c>
-      <c r="R26" s="2" t="s">
+      <c r="T26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T26">
-        <v>3</v>
-      </c>
       <c r="V26">
+        <v>3</v>
+      </c>
+      <c r="X26">
         <v>4</v>
       </c>
-      <c r="X26">
-        <v>3</v>
-      </c>
       <c r="Z26">
+        <v>3</v>
+      </c>
+      <c r="AB26">
         <v>4</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AD26" t="s">
         <v>14</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AF26" t="s">
         <v>18</v>
       </c>
-      <c r="AF26" t="s">
-        <v>0</v>
-      </c>
       <c r="AH26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>4</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AL26" t="s">
         <v>97</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AN26" t="s">
         <v>122</v>
       </c>
-      <c r="AM26">
+      <c r="AO26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3535,113 +3713,119 @@
       <c r="C27" t="b">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
-        <v>2</v>
+      <c r="D27">
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>1.23</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>1.23</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N27" t="s">
+      <c r="P27" t="s">
         <v>9</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
         <v>8</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>11</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="S27" t="s">
         <v>11</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="T27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="U27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
       <c r="V27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>2</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>2</v>
+      </c>
+      <c r="AC27">
         <v>2</v>
       </c>
       <c r="AD27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF27" t="s">
         <v>16</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AG27" t="s">
         <v>16</v>
       </c>
-      <c r="AF27" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>0</v>
-      </c>
       <c r="AH27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL27" t="s">
         <v>97</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AN27" t="s">
         <v>123</v>
       </c>
-      <c r="AM27">
+      <c r="AO27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3651,178 +3835,190 @@
       <c r="C28" t="b">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>3</v>
+      <c r="D28">
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>4.5599999999999996</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="O28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N28" t="s">
+      <c r="P28" t="s">
         <v>10</v>
       </c>
-      <c r="O28" t="s">
+      <c r="Q28" t="s">
         <v>9</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
         <v>11</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="S28" t="s">
         <v>11</v>
       </c>
-      <c r="R28" s="2" t="s">
+      <c r="T28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="U28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T28">
-        <v>2</v>
-      </c>
-      <c r="U28">
-        <v>2</v>
-      </c>
       <c r="V28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA28">
-        <v>3</v>
-      </c>
-      <c r="AB28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB28">
+        <v>3</v>
+      </c>
+      <c r="AC28">
+        <v>3</v>
+      </c>
+      <c r="AD28" t="s">
         <v>13</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AE28" t="s">
         <v>13</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AF28" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AG28" t="s">
         <v>17</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AH28" t="s">
         <v>15</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AI28" t="s">
         <v>15</v>
       </c>
-      <c r="AH28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL28" t="s">
         <v>97</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AN28" t="s">
         <v>124</v>
       </c>
-      <c r="AM28">
+      <c r="AO28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>7.89</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N29" t="s">
+      <c r="P29" t="s">
         <v>8</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
         <v>11</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="T29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T29">
-        <v>3</v>
-      </c>
       <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="X29">
         <v>4</v>
       </c>
-      <c r="X29">
-        <v>3</v>
-      </c>
       <c r="Z29">
+        <v>3</v>
+      </c>
+      <c r="AB29">
         <v>4</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AD29" t="s">
         <v>14</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AF29" t="s">
         <v>18</v>
       </c>
-      <c r="AF29" t="s">
-        <v>0</v>
-      </c>
       <c r="AH29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="s">
         <v>4</v>
       </c>
-      <c r="AJ29" t="s">
+      <c r="AL29" t="s">
         <v>97</v>
       </c>
-      <c r="AL29" t="s">
+      <c r="AN29" t="s">
         <v>125</v>
       </c>
-      <c r="AM29">
+      <c r="AO29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3832,113 +4028,119 @@
       <c r="C30" t="b">
         <v>1</v>
       </c>
-      <c r="D30" t="s">
-        <v>2</v>
+      <c r="D30">
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>1.23</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>1.23</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="N30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="O30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
         <v>9</v>
       </c>
-      <c r="O30" t="s">
+      <c r="Q30" t="s">
         <v>8</v>
       </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
         <v>11</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="S30" t="s">
         <v>11</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="T30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="U30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T30">
-        <v>1</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
       <c r="V30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA30">
-        <v>2</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>2</v>
+      </c>
+      <c r="AC30">
         <v>2</v>
       </c>
       <c r="AD30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF30" t="s">
         <v>16</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AG30" t="s">
         <v>16</v>
       </c>
-      <c r="AF30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>0</v>
-      </c>
       <c r="AH30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL30" t="s">
         <v>97</v>
       </c>
-      <c r="AL30" t="s">
+      <c r="AN30" t="s">
         <v>126</v>
       </c>
-      <c r="AM30">
+      <c r="AO30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3948,178 +4150,190 @@
       <c r="C31" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>3</v>
+      <c r="D31">
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>4.5599999999999996</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="O31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N31" t="s">
+      <c r="P31" t="s">
         <v>10</v>
       </c>
-      <c r="O31" t="s">
+      <c r="Q31" t="s">
         <v>9</v>
       </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
         <v>11</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="S31" t="s">
         <v>11</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="T31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="U31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T31">
-        <v>2</v>
-      </c>
-      <c r="U31">
-        <v>2</v>
-      </c>
       <c r="V31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA31">
-        <v>3</v>
-      </c>
-      <c r="AB31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB31">
+        <v>3</v>
+      </c>
+      <c r="AC31">
+        <v>3</v>
+      </c>
+      <c r="AD31" t="s">
         <v>13</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AE31" t="s">
         <v>13</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AF31" t="s">
         <v>17</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AG31" t="s">
         <v>17</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AH31" t="s">
         <v>15</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AI31" t="s">
         <v>15</v>
       </c>
-      <c r="AH31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL31" t="s">
         <v>97</v>
       </c>
-      <c r="AL31" t="s">
+      <c r="AN31" t="s">
         <v>127</v>
       </c>
-      <c r="AM31">
+      <c r="AO31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>7.89</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="N32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N32" t="s">
+      <c r="P32" t="s">
         <v>8</v>
       </c>
-      <c r="P32" t="s">
+      <c r="R32" t="s">
         <v>11</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="T32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T32">
-        <v>3</v>
-      </c>
       <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="X32">
         <v>4</v>
       </c>
-      <c r="X32">
-        <v>3</v>
-      </c>
       <c r="Z32">
+        <v>3</v>
+      </c>
+      <c r="AB32">
         <v>4</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AD32" t="s">
         <v>14</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AF32" t="s">
         <v>18</v>
       </c>
-      <c r="AF32" t="s">
-        <v>0</v>
-      </c>
       <c r="AH32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="s">
         <v>4</v>
       </c>
-      <c r="AJ32" t="s">
+      <c r="AL32" t="s">
         <v>97</v>
       </c>
-      <c r="AL32" t="s">
+      <c r="AN32" t="s">
         <v>128</v>
       </c>
-      <c r="AM32">
+      <c r="AO32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4129,113 +4343,119 @@
       <c r="C33" t="b">
         <v>1</v>
       </c>
-      <c r="D33" t="s">
-        <v>2</v>
+      <c r="D33">
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>1.23</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>1.23</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N33" t="s">
+      <c r="P33" t="s">
         <v>9</v>
       </c>
-      <c r="O33" t="s">
+      <c r="Q33" t="s">
         <v>8</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>11</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="S33" t="s">
         <v>11</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="T33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="U33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
       <c r="V33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA33">
-        <v>2</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>2</v>
+      </c>
+      <c r="AC33">
         <v>2</v>
       </c>
       <c r="AD33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF33" t="s">
         <v>16</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AG33" t="s">
         <v>16</v>
       </c>
-      <c r="AF33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>0</v>
-      </c>
       <c r="AH33" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL33" t="s">
         <v>97</v>
       </c>
-      <c r="AL33" t="s">
+      <c r="AN33" t="s">
         <v>129</v>
       </c>
-      <c r="AM33">
+      <c r="AO33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4245,243 +4465,261 @@
       <c r="C34" t="b">
         <v>0</v>
       </c>
-      <c r="D34" t="s">
-        <v>3</v>
+      <c r="D34">
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>4.5599999999999996</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="O34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N34" t="s">
+      <c r="P34" t="s">
         <v>10</v>
       </c>
-      <c r="O34" t="s">
+      <c r="Q34" t="s">
         <v>9</v>
       </c>
-      <c r="P34" t="s">
+      <c r="R34" t="s">
         <v>11</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="S34" t="s">
         <v>11</v>
       </c>
-      <c r="R34" s="2" t="s">
+      <c r="T34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="U34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T34">
-        <v>2</v>
-      </c>
-      <c r="U34">
-        <v>2</v>
-      </c>
       <c r="V34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA34">
-        <v>3</v>
-      </c>
-      <c r="AB34" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB34">
+        <v>3</v>
+      </c>
+      <c r="AC34">
+        <v>3</v>
+      </c>
+      <c r="AD34" t="s">
         <v>13</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AE34" t="s">
         <v>13</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AF34" t="s">
         <v>17</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AG34" t="s">
         <v>17</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AH34" t="s">
         <v>15</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AI34" t="s">
         <v>15</v>
       </c>
-      <c r="AH34" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL34" t="s">
         <v>97</v>
       </c>
-      <c r="AL34" t="s">
+      <c r="AN34" t="s">
         <v>130</v>
       </c>
-      <c r="AM34">
+      <c r="AO34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>7.89</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="N35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N35" t="s">
+      <c r="P35" t="s">
         <v>8</v>
       </c>
-      <c r="P35" t="s">
+      <c r="R35" t="s">
         <v>11</v>
       </c>
-      <c r="R35" s="2" t="s">
+      <c r="T35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T35">
-        <v>3</v>
-      </c>
       <c r="V35">
+        <v>3</v>
+      </c>
+      <c r="X35">
         <v>4</v>
       </c>
-      <c r="X35">
-        <v>3</v>
-      </c>
       <c r="Z35">
+        <v>3</v>
+      </c>
+      <c r="AB35">
         <v>4</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AD35" t="s">
         <v>14</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AF35" t="s">
         <v>18</v>
       </c>
-      <c r="AF35" t="s">
-        <v>0</v>
-      </c>
       <c r="AH35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="s">
         <v>4</v>
       </c>
-      <c r="AJ35" t="s">
+      <c r="AL35" t="s">
         <v>97</v>
       </c>
-      <c r="AL35" t="s">
+      <c r="AN35" t="s">
         <v>131</v>
       </c>
-      <c r="AM35">
+      <c r="AO35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="b">
         <v>1</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>7.89</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N36" t="s">
+      <c r="P36" t="s">
         <v>9</v>
       </c>
-      <c r="P36" t="s">
+      <c r="R36" t="s">
         <v>11</v>
       </c>
-      <c r="R36" s="2" t="s">
+      <c r="T36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
       <c r="V36">
+        <v>3</v>
+      </c>
+      <c r="X36">
         <v>4</v>
       </c>
-      <c r="X36">
-        <v>3</v>
-      </c>
       <c r="Z36">
+        <v>3</v>
+      </c>
+      <c r="AB36">
         <v>4</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AD36" t="s">
         <v>14</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AF36" t="s">
         <v>18</v>
       </c>
-      <c r="AF36" t="s">
-        <v>0</v>
-      </c>
       <c r="AH36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="s">
         <v>4</v>
       </c>
-      <c r="AJ36" t="s">
+      <c r="AL36" t="s">
         <v>97</v>
       </c>
-      <c r="AL36" t="s">
+      <c r="AN36" t="s">
         <v>132</v>
       </c>
-      <c r="AM36">
+      <c r="AO36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4491,113 +4729,119 @@
       <c r="C37" t="b">
         <v>1</v>
       </c>
-      <c r="D37" t="s">
-        <v>2</v>
+      <c r="D37">
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>1.23</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>1.23</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N37" t="s">
+      <c r="P37" t="s">
         <v>10</v>
       </c>
-      <c r="O37" t="s">
+      <c r="Q37" t="s">
         <v>8</v>
       </c>
-      <c r="P37" t="s">
+      <c r="R37" t="s">
         <v>11</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="S37" t="s">
         <v>11</v>
       </c>
-      <c r="R37" s="2" t="s">
+      <c r="T37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S37" s="2" t="s">
+      <c r="U37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
       <c r="V37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>2</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>2</v>
+      </c>
+      <c r="AC37">
         <v>2</v>
       </c>
       <c r="AD37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF37" t="s">
         <v>16</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AG37" t="s">
         <v>16</v>
       </c>
-      <c r="AF37" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>0</v>
-      </c>
       <c r="AH37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL37" t="s">
         <v>97</v>
       </c>
-      <c r="AL37" t="s">
+      <c r="AN37" t="s">
         <v>133</v>
       </c>
-      <c r="AM37">
+      <c r="AO37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4607,303 +4851,315 @@
       <c r="C38" t="b">
         <v>0</v>
       </c>
-      <c r="D38" t="s">
-        <v>3</v>
+      <c r="D38">
+        <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>3</v>
       </c>
       <c r="H38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>4.5599999999999996</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="N38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N38" t="s">
+      <c r="P38" t="s">
         <v>8</v>
       </c>
-      <c r="O38" t="s">
+      <c r="Q38" t="s">
         <v>9</v>
       </c>
-      <c r="P38" t="s">
+      <c r="R38" t="s">
         <v>11</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="S38" t="s">
         <v>11</v>
       </c>
-      <c r="R38" s="2" t="s">
+      <c r="T38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S38" s="2" t="s">
+      <c r="U38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T38">
-        <v>2</v>
-      </c>
-      <c r="U38">
-        <v>2</v>
-      </c>
       <c r="V38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA38">
-        <v>3</v>
-      </c>
-      <c r="AB38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB38">
+        <v>3</v>
+      </c>
+      <c r="AC38">
+        <v>3</v>
+      </c>
+      <c r="AD38" t="s">
         <v>13</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AE38" t="s">
         <v>13</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AF38" t="s">
         <v>17</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AG38" t="s">
         <v>17</v>
       </c>
-      <c r="AF38" t="s">
+      <c r="AH38" t="s">
         <v>15</v>
       </c>
-      <c r="AG38" t="s">
+      <c r="AI38" t="s">
         <v>15</v>
       </c>
-      <c r="AH38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>3</v>
-      </c>
       <c r="AJ38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL38" t="s">
         <v>97</v>
       </c>
-      <c r="AL38" t="s">
+      <c r="AN38" t="s">
         <v>134</v>
       </c>
-      <c r="AM38">
+      <c r="AO38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="b">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>7.89</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N39" t="s">
+      <c r="P39" t="s">
         <v>9</v>
       </c>
-      <c r="P39" t="s">
+      <c r="R39" t="s">
         <v>11</v>
       </c>
-      <c r="R39" s="2" t="s">
+      <c r="T39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T39">
-        <v>1</v>
-      </c>
       <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="X39">
         <v>4</v>
       </c>
-      <c r="X39">
-        <v>3</v>
-      </c>
       <c r="Z39">
+        <v>3</v>
+      </c>
+      <c r="AB39">
         <v>4</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AD39" t="s">
         <v>14</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AF39" t="s">
         <v>18</v>
       </c>
-      <c r="AF39" t="s">
-        <v>0</v>
-      </c>
       <c r="AH39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="s">
         <v>4</v>
       </c>
-      <c r="AJ39" t="s">
+      <c r="AL39" t="s">
         <v>97</v>
       </c>
-      <c r="AL39" t="s">
+      <c r="AN39" t="s">
         <v>135</v>
       </c>
-      <c r="AM39">
+      <c r="AO39">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L3" r:id="rId2"/>
-    <hyperlink ref="M2" r:id="rId3"/>
-    <hyperlink ref="L4" r:id="rId4"/>
-    <hyperlink ref="M3" r:id="rId5"/>
-    <hyperlink ref="R2" r:id="rId6"/>
-    <hyperlink ref="R3" r:id="rId7"/>
-    <hyperlink ref="R4" r:id="rId8"/>
-    <hyperlink ref="S2" r:id="rId9"/>
-    <hyperlink ref="S3" r:id="rId10"/>
-    <hyperlink ref="L5" r:id="rId11"/>
-    <hyperlink ref="L6" r:id="rId12"/>
-    <hyperlink ref="M5" r:id="rId13"/>
-    <hyperlink ref="L7" r:id="rId14"/>
-    <hyperlink ref="M6" r:id="rId15"/>
-    <hyperlink ref="R5" r:id="rId16"/>
-    <hyperlink ref="R6" r:id="rId17"/>
-    <hyperlink ref="R7" r:id="rId18"/>
-    <hyperlink ref="S5" r:id="rId19"/>
-    <hyperlink ref="S6" r:id="rId20"/>
-    <hyperlink ref="L8" r:id="rId21"/>
-    <hyperlink ref="L9" r:id="rId22"/>
-    <hyperlink ref="M8" r:id="rId23"/>
-    <hyperlink ref="L10" r:id="rId24"/>
-    <hyperlink ref="M9" r:id="rId25"/>
-    <hyperlink ref="R8" r:id="rId26"/>
-    <hyperlink ref="R9" r:id="rId27"/>
-    <hyperlink ref="R10" r:id="rId28"/>
-    <hyperlink ref="S8" r:id="rId29"/>
-    <hyperlink ref="S9" r:id="rId30"/>
-    <hyperlink ref="L11" r:id="rId31"/>
-    <hyperlink ref="L12" r:id="rId32"/>
-    <hyperlink ref="M11" r:id="rId33"/>
-    <hyperlink ref="L13" r:id="rId34"/>
-    <hyperlink ref="M12" r:id="rId35"/>
-    <hyperlink ref="R11" r:id="rId36"/>
-    <hyperlink ref="R12" r:id="rId37"/>
-    <hyperlink ref="R13" r:id="rId38"/>
-    <hyperlink ref="S11" r:id="rId39"/>
-    <hyperlink ref="S12" r:id="rId40"/>
-    <hyperlink ref="L14" r:id="rId41"/>
-    <hyperlink ref="L15" r:id="rId42"/>
-    <hyperlink ref="M14" r:id="rId43"/>
-    <hyperlink ref="L16" r:id="rId44"/>
-    <hyperlink ref="M15" r:id="rId45"/>
-    <hyperlink ref="R14" r:id="rId46"/>
-    <hyperlink ref="R15" r:id="rId47"/>
-    <hyperlink ref="R16" r:id="rId48"/>
-    <hyperlink ref="S14" r:id="rId49"/>
-    <hyperlink ref="S15" r:id="rId50"/>
-    <hyperlink ref="L17" r:id="rId51"/>
-    <hyperlink ref="R17" r:id="rId52"/>
-    <hyperlink ref="L18" r:id="rId53"/>
-    <hyperlink ref="L19" r:id="rId54"/>
-    <hyperlink ref="M18" r:id="rId55"/>
-    <hyperlink ref="L20" r:id="rId56"/>
-    <hyperlink ref="M19" r:id="rId57"/>
-    <hyperlink ref="R18" r:id="rId58"/>
-    <hyperlink ref="R19" r:id="rId59"/>
-    <hyperlink ref="R20" r:id="rId60"/>
-    <hyperlink ref="S18" r:id="rId61"/>
-    <hyperlink ref="S19" r:id="rId62"/>
-    <hyperlink ref="L21" r:id="rId63"/>
-    <hyperlink ref="L22" r:id="rId64"/>
-    <hyperlink ref="M21" r:id="rId65"/>
-    <hyperlink ref="L23" r:id="rId66"/>
-    <hyperlink ref="M22" r:id="rId67"/>
-    <hyperlink ref="R21" r:id="rId68"/>
-    <hyperlink ref="R22" r:id="rId69"/>
-    <hyperlink ref="R23" r:id="rId70"/>
-    <hyperlink ref="S21" r:id="rId71"/>
-    <hyperlink ref="S22" r:id="rId72"/>
-    <hyperlink ref="L24" r:id="rId73"/>
-    <hyperlink ref="L25" r:id="rId74"/>
-    <hyperlink ref="M24" r:id="rId75"/>
-    <hyperlink ref="L26" r:id="rId76"/>
-    <hyperlink ref="M25" r:id="rId77"/>
-    <hyperlink ref="R24" r:id="rId78"/>
-    <hyperlink ref="R25" r:id="rId79"/>
-    <hyperlink ref="R26" r:id="rId80"/>
-    <hyperlink ref="S24" r:id="rId81"/>
-    <hyperlink ref="S25" r:id="rId82"/>
-    <hyperlink ref="L27" r:id="rId83"/>
-    <hyperlink ref="L28" r:id="rId84"/>
-    <hyperlink ref="M27" r:id="rId85"/>
-    <hyperlink ref="L29" r:id="rId86"/>
-    <hyperlink ref="M28" r:id="rId87"/>
-    <hyperlink ref="R27" r:id="rId88"/>
-    <hyperlink ref="R28" r:id="rId89"/>
-    <hyperlink ref="R29" r:id="rId90"/>
-    <hyperlink ref="S27" r:id="rId91"/>
-    <hyperlink ref="S28" r:id="rId92"/>
-    <hyperlink ref="L30" r:id="rId93"/>
-    <hyperlink ref="L31" r:id="rId94"/>
-    <hyperlink ref="M30" r:id="rId95"/>
-    <hyperlink ref="L32" r:id="rId96"/>
-    <hyperlink ref="M31" r:id="rId97"/>
-    <hyperlink ref="R30" r:id="rId98"/>
-    <hyperlink ref="R31" r:id="rId99"/>
-    <hyperlink ref="R32" r:id="rId100"/>
-    <hyperlink ref="S30" r:id="rId101"/>
-    <hyperlink ref="S31" r:id="rId102"/>
-    <hyperlink ref="L33" r:id="rId103"/>
-    <hyperlink ref="L34" r:id="rId104"/>
-    <hyperlink ref="M33" r:id="rId105"/>
-    <hyperlink ref="L35" r:id="rId106"/>
-    <hyperlink ref="M34" r:id="rId107"/>
-    <hyperlink ref="R33" r:id="rId108"/>
-    <hyperlink ref="R34" r:id="rId109"/>
-    <hyperlink ref="R35" r:id="rId110"/>
-    <hyperlink ref="S33" r:id="rId111"/>
-    <hyperlink ref="S34" r:id="rId112"/>
-    <hyperlink ref="L36" r:id="rId113"/>
-    <hyperlink ref="R36" r:id="rId114"/>
-    <hyperlink ref="L37" r:id="rId115"/>
-    <hyperlink ref="L38" r:id="rId116"/>
-    <hyperlink ref="M37" r:id="rId117"/>
-    <hyperlink ref="L39" r:id="rId118"/>
-    <hyperlink ref="M38" r:id="rId119"/>
-    <hyperlink ref="R37" r:id="rId120"/>
-    <hyperlink ref="R38" r:id="rId121"/>
-    <hyperlink ref="R39" r:id="rId122"/>
-    <hyperlink ref="S37" r:id="rId123"/>
-    <hyperlink ref="S38" r:id="rId124"/>
+    <hyperlink ref="N2" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="O2" r:id="rId3"/>
+    <hyperlink ref="N4" r:id="rId4"/>
+    <hyperlink ref="O3" r:id="rId5"/>
+    <hyperlink ref="T2" r:id="rId6"/>
+    <hyperlink ref="T3" r:id="rId7"/>
+    <hyperlink ref="T4" r:id="rId8"/>
+    <hyperlink ref="U2" r:id="rId9"/>
+    <hyperlink ref="U3" r:id="rId10"/>
+    <hyperlink ref="N5" r:id="rId11"/>
+    <hyperlink ref="N6" r:id="rId12"/>
+    <hyperlink ref="O5" r:id="rId13"/>
+    <hyperlink ref="N7" r:id="rId14"/>
+    <hyperlink ref="O6" r:id="rId15"/>
+    <hyperlink ref="T5" r:id="rId16"/>
+    <hyperlink ref="T6" r:id="rId17"/>
+    <hyperlink ref="T7" r:id="rId18"/>
+    <hyperlink ref="U5" r:id="rId19"/>
+    <hyperlink ref="U6" r:id="rId20"/>
+    <hyperlink ref="N8" r:id="rId21"/>
+    <hyperlink ref="N9" r:id="rId22"/>
+    <hyperlink ref="O8" r:id="rId23"/>
+    <hyperlink ref="N10" r:id="rId24"/>
+    <hyperlink ref="O9" r:id="rId25"/>
+    <hyperlink ref="T8" r:id="rId26"/>
+    <hyperlink ref="T9" r:id="rId27"/>
+    <hyperlink ref="T10" r:id="rId28"/>
+    <hyperlink ref="U8" r:id="rId29"/>
+    <hyperlink ref="U9" r:id="rId30"/>
+    <hyperlink ref="N11" r:id="rId31"/>
+    <hyperlink ref="N12" r:id="rId32"/>
+    <hyperlink ref="O11" r:id="rId33"/>
+    <hyperlink ref="N13" r:id="rId34"/>
+    <hyperlink ref="O12" r:id="rId35"/>
+    <hyperlink ref="T11" r:id="rId36"/>
+    <hyperlink ref="T12" r:id="rId37"/>
+    <hyperlink ref="T13" r:id="rId38"/>
+    <hyperlink ref="U11" r:id="rId39"/>
+    <hyperlink ref="U12" r:id="rId40"/>
+    <hyperlink ref="N14" r:id="rId41"/>
+    <hyperlink ref="N15" r:id="rId42"/>
+    <hyperlink ref="O14" r:id="rId43"/>
+    <hyperlink ref="N16" r:id="rId44"/>
+    <hyperlink ref="O15" r:id="rId45"/>
+    <hyperlink ref="T14" r:id="rId46"/>
+    <hyperlink ref="T15" r:id="rId47"/>
+    <hyperlink ref="T16" r:id="rId48"/>
+    <hyperlink ref="U14" r:id="rId49"/>
+    <hyperlink ref="U15" r:id="rId50"/>
+    <hyperlink ref="N17" r:id="rId51"/>
+    <hyperlink ref="T17" r:id="rId52"/>
+    <hyperlink ref="N18" r:id="rId53"/>
+    <hyperlink ref="N19" r:id="rId54"/>
+    <hyperlink ref="O18" r:id="rId55"/>
+    <hyperlink ref="N20" r:id="rId56"/>
+    <hyperlink ref="O19" r:id="rId57"/>
+    <hyperlink ref="T18" r:id="rId58"/>
+    <hyperlink ref="T19" r:id="rId59"/>
+    <hyperlink ref="T20" r:id="rId60"/>
+    <hyperlink ref="U18" r:id="rId61"/>
+    <hyperlink ref="U19" r:id="rId62"/>
+    <hyperlink ref="N21" r:id="rId63"/>
+    <hyperlink ref="N22" r:id="rId64"/>
+    <hyperlink ref="O21" r:id="rId65"/>
+    <hyperlink ref="N23" r:id="rId66"/>
+    <hyperlink ref="O22" r:id="rId67"/>
+    <hyperlink ref="T21" r:id="rId68"/>
+    <hyperlink ref="T22" r:id="rId69"/>
+    <hyperlink ref="T23" r:id="rId70"/>
+    <hyperlink ref="U21" r:id="rId71"/>
+    <hyperlink ref="U22" r:id="rId72"/>
+    <hyperlink ref="N24" r:id="rId73"/>
+    <hyperlink ref="N25" r:id="rId74"/>
+    <hyperlink ref="O24" r:id="rId75"/>
+    <hyperlink ref="N26" r:id="rId76"/>
+    <hyperlink ref="O25" r:id="rId77"/>
+    <hyperlink ref="T24" r:id="rId78"/>
+    <hyperlink ref="T25" r:id="rId79"/>
+    <hyperlink ref="T26" r:id="rId80"/>
+    <hyperlink ref="U24" r:id="rId81"/>
+    <hyperlink ref="U25" r:id="rId82"/>
+    <hyperlink ref="N27" r:id="rId83"/>
+    <hyperlink ref="N28" r:id="rId84"/>
+    <hyperlink ref="O27" r:id="rId85"/>
+    <hyperlink ref="N29" r:id="rId86"/>
+    <hyperlink ref="O28" r:id="rId87"/>
+    <hyperlink ref="T27" r:id="rId88"/>
+    <hyperlink ref="T28" r:id="rId89"/>
+    <hyperlink ref="T29" r:id="rId90"/>
+    <hyperlink ref="U27" r:id="rId91"/>
+    <hyperlink ref="U28" r:id="rId92"/>
+    <hyperlink ref="N30" r:id="rId93"/>
+    <hyperlink ref="N31" r:id="rId94"/>
+    <hyperlink ref="O30" r:id="rId95"/>
+    <hyperlink ref="N32" r:id="rId96"/>
+    <hyperlink ref="O31" r:id="rId97"/>
+    <hyperlink ref="T30" r:id="rId98"/>
+    <hyperlink ref="T31" r:id="rId99"/>
+    <hyperlink ref="T32" r:id="rId100"/>
+    <hyperlink ref="U30" r:id="rId101"/>
+    <hyperlink ref="U31" r:id="rId102"/>
+    <hyperlink ref="N33" r:id="rId103"/>
+    <hyperlink ref="N34" r:id="rId104"/>
+    <hyperlink ref="O33" r:id="rId105"/>
+    <hyperlink ref="N35" r:id="rId106"/>
+    <hyperlink ref="O34" r:id="rId107"/>
+    <hyperlink ref="T33" r:id="rId108"/>
+    <hyperlink ref="T34" r:id="rId109"/>
+    <hyperlink ref="T35" r:id="rId110"/>
+    <hyperlink ref="U33" r:id="rId111"/>
+    <hyperlink ref="U34" r:id="rId112"/>
+    <hyperlink ref="N36" r:id="rId113"/>
+    <hyperlink ref="T36" r:id="rId114"/>
+    <hyperlink ref="N37" r:id="rId115"/>
+    <hyperlink ref="N38" r:id="rId116"/>
+    <hyperlink ref="O37" r:id="rId117"/>
+    <hyperlink ref="N39" r:id="rId118"/>
+    <hyperlink ref="O38" r:id="rId119"/>
+    <hyperlink ref="T37" r:id="rId120"/>
+    <hyperlink ref="T38" r:id="rId121"/>
+    <hyperlink ref="T39" r:id="rId122"/>
+    <hyperlink ref="U37" r:id="rId123"/>
+    <hyperlink ref="U38" r:id="rId124"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5107,10 +5363,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5122,10 +5378,10 @@
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5172,10 +5428,13 @@
         <v>99</v>
       </c>
       <c r="P1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5195,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -5218,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -5238,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -5258,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5278,18 +5537,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -5298,18 +5554,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -5317,230 +5570,242 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>81</v>
-      </c>
-      <c r="M17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>81</v>
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>81</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -5548,56 +5813,56 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="b">
         <v>1</v>
@@ -5605,47 +5870,44 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
@@ -5657,64 +5919,67 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -5722,13 +5987,10 @@
       <c r="I29">
         <v>10</v>
       </c>
-      <c r="M29" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
@@ -5740,244 +6002,244 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>10</v>
-      </c>
-      <c r="M30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
       </c>
       <c r="M33" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
         <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>59</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
         <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
         <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
-      </c>
-      <c r="N39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
         <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
-      </c>
-      <c r="N40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
         <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>78</v>
+      </c>
+      <c r="D41" t="s">
+        <v>59</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="b">
-        <v>0</v>
-      </c>
-      <c r="O41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
         <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -5985,22 +6247,19 @@
       <c r="F42" t="b">
         <v>0</v>
       </c>
-      <c r="O42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -6008,39 +6267,33 @@
       <c r="F43" t="b">
         <v>1</v>
       </c>
-      <c r="O43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="N43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="b">
-        <v>1</v>
-      </c>
-      <c r="P44" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>0</v>
+      </c>
+      <c r="O44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
         <v>57</v>
@@ -6052,70 +6305,141 @@
         <v>0</v>
       </c>
       <c r="F45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="b">
-        <v>1</v>
-      </c>
-      <c r="P45" t="s">
+        <v>0</v>
+      </c>
+      <c r="O45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="O46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="3" t="s">
+    <row r="49" spans="1:17">
+      <c r="A49" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="3" t="s">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="1660" windowWidth="25600" windowHeight="14620" activeTab="4"/>
+    <workbookView xWindow="4935" yWindow="1665" windowWidth="25605" windowHeight="14625"/>
   </bookViews>
   <sheets>
     <sheet name="TypeTest" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="160">
   <si>
     <t>text</t>
   </si>
@@ -494,6 +494,15 @@
   </si>
   <si>
     <t>partOfAttribute</t>
+  </si>
+  <si>
+    <t>categorical_mref</t>
+  </si>
+  <si>
+    <t>xcategoricalmref_value</t>
+  </si>
+  <si>
+    <t>xcategoricalmrefnillable_value</t>
   </si>
 </sst>
 </file>
@@ -876,40 +885,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP39"/>
+  <dimension ref="A1:AR39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24" customWidth="1"/>
-    <col min="37" max="37" width="23.5" customWidth="1"/>
-    <col min="38" max="38" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24" customWidth="1"/>
+    <col min="39" max="39" width="23.42578125" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -932,112 +943,118 @@
         <v>19</v>
       </c>
       <c r="H1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>49</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>41</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>95</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>96</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>98</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>100</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1059,113 +1076,119 @@
       <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>1.23</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>1.23</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>8</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>11</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>5</v>
       </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
       <c r="Y2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>2</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>2</v>
+      </c>
+      <c r="AE2">
         <v>2</v>
       </c>
       <c r="AF2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" t="s">
         <v>16</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>16</v>
       </c>
-      <c r="AH2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" t="s">
         <v>97</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>97</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>16</v>
       </c>
-      <c r="AO2">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42">
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1187,113 +1210,119 @@
       <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>4.5599999999999996</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>4.5599999999999996</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>9</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>11</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
       <c r="X3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC3">
-        <v>3</v>
-      </c>
-      <c r="AD3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <v>3</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
+      </c>
+      <c r="AF3" t="s">
         <v>13</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>17</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AI3" t="s">
         <v>17</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AJ3" t="s">
         <v>15</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AK3" t="s">
         <v>15</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>3</v>
-      </c>
       <c r="AL3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" t="s">
         <v>97</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AO3" t="s">
         <v>97</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AP3" t="s">
         <v>17</v>
       </c>
-      <c r="AO3">
-        <v>2</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42">
+      <c r="AQ3">
+        <v>2</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1309,68 +1338,71 @@
       <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>7.89</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>10</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V4">
-        <v>3</v>
-      </c>
       <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
         <v>4</v>
       </c>
-      <c r="Z4">
-        <v>3</v>
-      </c>
       <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AD4">
         <v>4</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>18</v>
       </c>
-      <c r="AH4" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="s">
         <v>4</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AN4" t="s">
         <v>97</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AO4" t="s">
         <v>97</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>18</v>
       </c>
-      <c r="AO4">
-        <v>3</v>
-      </c>
-      <c r="AP4" t="s">
+      <c r="AQ4">
+        <v>3</v>
+      </c>
+      <c r="AR4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1392,113 +1424,119 @@
       <c r="G5" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>1.23</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>1.23</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>8</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>11</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>11</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
       <c r="X5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>2</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5">
         <v>2</v>
       </c>
       <c r="AF5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" t="s">
         <v>16</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AI5" t="s">
         <v>16</v>
       </c>
-      <c r="AH5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN5" t="s">
         <v>97</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AO5" t="s">
         <v>97</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AP5" t="s">
         <v>101</v>
       </c>
-      <c r="AO5">
+      <c r="AQ5">
         <v>4</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AR5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1520,113 +1558,119 @@
       <c r="G6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>4.5599999999999996</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>4.5599999999999996</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>9</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>11</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <v>2</v>
-      </c>
       <c r="X6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC6">
-        <v>3</v>
-      </c>
-      <c r="AD6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>3</v>
+      </c>
+      <c r="AE6">
+        <v>3</v>
+      </c>
+      <c r="AF6" t="s">
         <v>13</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>13</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>17</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AI6" t="s">
         <v>17</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AJ6" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AK6" t="s">
         <v>15</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>3</v>
-      </c>
       <c r="AL6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN6" t="s">
         <v>97</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AO6" t="s">
         <v>97</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AP6" t="s">
         <v>102</v>
       </c>
-      <c r="AO6">
+      <c r="AQ6">
         <v>5</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AR6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1642,65 +1686,68 @@
       <c r="F7" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>7.89</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>10</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V7">
-        <v>3</v>
-      </c>
       <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Z7">
         <v>4</v>
       </c>
-      <c r="Z7">
-        <v>3</v>
-      </c>
       <c r="AB7">
+        <v>3</v>
+      </c>
+      <c r="AD7">
         <v>4</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AF7" t="s">
         <v>14</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>18</v>
       </c>
-      <c r="AH7" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="s">
         <v>4</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AN7" t="s">
         <v>97</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AO7" t="s">
         <v>97</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AP7" t="s">
         <v>103</v>
       </c>
-      <c r="AO7">
+      <c r="AQ7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1722,110 +1769,116 @@
       <c r="G8" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>1.23</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>1.23</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>8</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>11</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
       <c r="X8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>2</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
+      <c r="AE8">
         <v>2</v>
       </c>
       <c r="AF8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH8" t="s">
         <v>16</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AI8" t="s">
         <v>16</v>
       </c>
-      <c r="AH8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN8" t="s">
         <v>97</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AO8" t="s">
         <v>97</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AP8" t="s">
         <v>104</v>
       </c>
-      <c r="AO8">
+      <c r="AQ8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1847,110 +1900,116 @@
       <c r="G9" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>4.5599999999999996</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>4.5599999999999996</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>9</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>11</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V9">
-        <v>2</v>
-      </c>
-      <c r="W9">
-        <v>2</v>
-      </c>
       <c r="X9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC9">
-        <v>3</v>
-      </c>
-      <c r="AD9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD9">
+        <v>3</v>
+      </c>
+      <c r="AE9">
+        <v>3</v>
+      </c>
+      <c r="AF9" t="s">
         <v>13</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AG9" t="s">
         <v>13</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>17</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AI9" t="s">
         <v>17</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
         <v>15</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AK9" t="s">
         <v>15</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>3</v>
-      </c>
       <c r="AL9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN9" t="s">
         <v>97</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AO9" t="s">
         <v>97</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AP9" t="s">
         <v>105</v>
       </c>
-      <c r="AO9">
+      <c r="AQ9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1966,65 +2025,68 @@
       <c r="F10" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>7.89</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>10</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>11</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V10">
-        <v>3</v>
-      </c>
       <c r="X10">
+        <v>3</v>
+      </c>
+      <c r="Z10">
         <v>4</v>
       </c>
-      <c r="Z10">
-        <v>3</v>
-      </c>
       <c r="AB10">
+        <v>3</v>
+      </c>
+      <c r="AD10">
         <v>4</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>14</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>18</v>
       </c>
-      <c r="AH10" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="s">
         <v>4</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AN10" t="s">
         <v>97</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AO10" t="s">
         <v>97</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AP10" t="s">
         <v>106</v>
       </c>
-      <c r="AO10">
+      <c r="AQ10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2046,110 +2108,116 @@
       <c r="G11" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>1.23</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>1.23</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>8</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>11</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="W11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
       <c r="X11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>2</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>2</v>
+      </c>
+      <c r="AE11">
         <v>2</v>
       </c>
       <c r="AF11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH11" t="s">
         <v>16</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AI11" t="s">
         <v>16</v>
       </c>
-      <c r="AH11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN11" t="s">
         <v>97</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AO11" t="s">
         <v>97</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AP11" t="s">
         <v>107</v>
       </c>
-      <c r="AO11">
+      <c r="AQ11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2171,110 +2239,116 @@
       <c r="G12" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>4.5599999999999996</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>4.5599999999999996</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>9</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>9</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
         <v>11</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="V12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="W12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
-      <c r="W12">
-        <v>2</v>
-      </c>
       <c r="X12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC12">
-        <v>3</v>
-      </c>
-      <c r="AD12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD12">
+        <v>3</v>
+      </c>
+      <c r="AE12">
+        <v>3</v>
+      </c>
+      <c r="AF12" t="s">
         <v>13</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AG12" t="s">
         <v>13</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>17</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AI12" t="s">
         <v>17</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
         <v>15</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AK12" t="s">
         <v>15</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>3</v>
-      </c>
       <c r="AL12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN12" t="s">
         <v>97</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AO12" t="s">
         <v>97</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AP12" t="s">
         <v>108</v>
       </c>
-      <c r="AO12">
+      <c r="AQ12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2290,65 +2364,68 @@
       <c r="F13" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>7.89</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>10</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
         <v>11</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="V13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V13">
-        <v>3</v>
-      </c>
       <c r="X13">
+        <v>3</v>
+      </c>
+      <c r="Z13">
         <v>4</v>
       </c>
-      <c r="Z13">
-        <v>3</v>
-      </c>
       <c r="AB13">
+        <v>3</v>
+      </c>
+      <c r="AD13">
         <v>4</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>14</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>18</v>
       </c>
-      <c r="AH13" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="s">
         <v>4</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AN13" t="s">
         <v>97</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AO13" t="s">
         <v>97</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AP13" t="s">
         <v>109</v>
       </c>
-      <c r="AO13">
+      <c r="AQ13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2370,110 +2447,116 @@
       <c r="G14" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>1.23</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>1.23</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>8</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>11</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" t="s">
         <v>11</v>
       </c>
-      <c r="T14" s="2" t="s">
+      <c r="V14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="W14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
       <c r="X14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>2</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>2</v>
+      </c>
+      <c r="AE14">
         <v>2</v>
       </c>
       <c r="AF14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH14" t="s">
         <v>16</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AI14" t="s">
         <v>16</v>
       </c>
-      <c r="AH14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN14" t="s">
         <v>97</v>
       </c>
-      <c r="AM14" t="s">
+      <c r="AO14" t="s">
         <v>97</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AP14" t="s">
         <v>110</v>
       </c>
-      <c r="AO14">
+      <c r="AQ14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2495,110 +2578,116 @@
       <c r="G15" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>4.5599999999999996</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>4.5599999999999996</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>9</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>9</v>
       </c>
-      <c r="R15" t="s">
+      <c r="T15" t="s">
         <v>11</v>
       </c>
-      <c r="S15" t="s">
+      <c r="U15" t="s">
         <v>11</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="V15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="W15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
-      <c r="W15">
-        <v>2</v>
-      </c>
       <c r="X15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC15">
-        <v>3</v>
-      </c>
-      <c r="AD15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>3</v>
+      </c>
+      <c r="AE15">
+        <v>3</v>
+      </c>
+      <c r="AF15" t="s">
         <v>13</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AG15" t="s">
         <v>13</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>17</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AI15" t="s">
         <v>17</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
         <v>15</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AK15" t="s">
         <v>15</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>3</v>
-      </c>
       <c r="AL15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN15" t="s">
         <v>97</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AO15" t="s">
         <v>97</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AP15" t="s">
         <v>111</v>
       </c>
-      <c r="AO15">
+      <c r="AQ15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2614,65 +2703,68 @@
       <c r="F16" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>7.89</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>10</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="V16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V16">
-        <v>3</v>
-      </c>
       <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Z16">
         <v>4</v>
       </c>
-      <c r="Z16">
-        <v>3</v>
-      </c>
       <c r="AB16">
+        <v>3</v>
+      </c>
+      <c r="AD16">
         <v>4</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>14</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>18</v>
       </c>
-      <c r="AH16" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="s">
         <v>4</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AN16" t="s">
         <v>97</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AO16" t="s">
         <v>97</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AP16" t="s">
         <v>112</v>
       </c>
-      <c r="AO16">
+      <c r="AQ16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2688,65 +2780,68 @@
       <c r="F17" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>7.89</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>8</v>
       </c>
-      <c r="R17" t="s">
+      <c r="T17" t="s">
         <v>11</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="V17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V17">
-        <v>3</v>
-      </c>
       <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="Z17">
         <v>4</v>
       </c>
-      <c r="Z17">
-        <v>3</v>
-      </c>
       <c r="AB17">
+        <v>3</v>
+      </c>
+      <c r="AD17">
         <v>4</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>14</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>18</v>
       </c>
-      <c r="AH17" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="s">
         <v>4</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AN17" t="s">
         <v>97</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AO17" t="s">
         <v>97</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AP17" t="s">
         <v>113</v>
       </c>
-      <c r="AO17">
+      <c r="AQ17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2768,110 +2863,116 @@
       <c r="G18" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>1.23</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>1.23</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>9</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>8</v>
       </c>
-      <c r="R18" t="s">
+      <c r="T18" t="s">
         <v>11</v>
       </c>
-      <c r="S18" t="s">
+      <c r="U18" t="s">
         <v>11</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="V18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="W18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
       <c r="X18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>2</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>2</v>
+      </c>
+      <c r="AE18">
         <v>2</v>
       </c>
       <c r="AF18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH18" t="s">
         <v>16</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AI18" t="s">
         <v>16</v>
       </c>
-      <c r="AH18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN18" t="s">
         <v>97</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AO18" t="s">
         <v>97</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AP18" t="s">
         <v>114</v>
       </c>
-      <c r="AO18">
+      <c r="AQ18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2893,110 +2994,116 @@
       <c r="G19" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>4.5599999999999996</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>4.5599999999999996</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>10</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>9</v>
       </c>
-      <c r="R19" t="s">
+      <c r="T19" t="s">
         <v>11</v>
       </c>
-      <c r="S19" t="s">
+      <c r="U19" t="s">
         <v>11</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="V19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="W19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>2</v>
-      </c>
       <c r="X19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC19">
-        <v>3</v>
-      </c>
-      <c r="AD19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD19">
+        <v>3</v>
+      </c>
+      <c r="AE19">
+        <v>3</v>
+      </c>
+      <c r="AF19" t="s">
         <v>13</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AG19" t="s">
         <v>13</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>17</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AI19" t="s">
         <v>17</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AJ19" t="s">
         <v>15</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AK19" t="s">
         <v>15</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>3</v>
-      </c>
       <c r="AL19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN19" t="s">
         <v>97</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AO19" t="s">
         <v>97</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AP19" t="s">
         <v>115</v>
       </c>
-      <c r="AO19">
+      <c r="AQ19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3012,65 +3119,68 @@
       <c r="F20" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>7.89</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>8</v>
       </c>
-      <c r="R20" t="s">
+      <c r="T20" t="s">
         <v>11</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="V20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V20">
-        <v>3</v>
-      </c>
       <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="Z20">
         <v>4</v>
       </c>
-      <c r="Z20">
-        <v>3</v>
-      </c>
       <c r="AB20">
+        <v>3</v>
+      </c>
+      <c r="AD20">
         <v>4</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AF20" t="s">
         <v>14</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>18</v>
       </c>
-      <c r="AH20" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="s">
         <v>4</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AN20" t="s">
         <v>97</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AO20" t="s">
         <v>97</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AP20" t="s">
         <v>116</v>
       </c>
-      <c r="AO20">
+      <c r="AQ20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3092,110 +3202,116 @@
       <c r="G21" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>1.23</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>1.23</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>9</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="S21" t="s">
         <v>8</v>
       </c>
-      <c r="R21" t="s">
+      <c r="T21" t="s">
         <v>11</v>
       </c>
-      <c r="S21" t="s">
+      <c r="U21" t="s">
         <v>11</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="V21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="W21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
       <c r="X21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>2</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>2</v>
+      </c>
+      <c r="AE21">
         <v>2</v>
       </c>
       <c r="AF21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH21" t="s">
         <v>16</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AI21" t="s">
         <v>16</v>
       </c>
-      <c r="AH21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN21" t="s">
         <v>97</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AO21" t="s">
         <v>97</v>
       </c>
-      <c r="AN21" t="s">
+      <c r="AP21" t="s">
         <v>117</v>
       </c>
-      <c r="AO21">
+      <c r="AQ21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3217,107 +3333,113 @@
       <c r="G22" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>4.5599999999999996</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>4.5599999999999996</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>9</v>
       </c>
-      <c r="R22" t="s">
+      <c r="T22" t="s">
         <v>11</v>
       </c>
-      <c r="S22" t="s">
+      <c r="U22" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="V22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="W22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V22">
-        <v>2</v>
-      </c>
-      <c r="W22">
-        <v>2</v>
-      </c>
       <c r="X22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC22">
-        <v>3</v>
-      </c>
-      <c r="AD22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD22">
+        <v>3</v>
+      </c>
+      <c r="AE22">
+        <v>3</v>
+      </c>
+      <c r="AF22" t="s">
         <v>13</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AG22" t="s">
         <v>13</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>17</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AI22" t="s">
         <v>17</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AJ22" t="s">
         <v>15</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AK22" t="s">
         <v>15</v>
       </c>
-      <c r="AJ22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>3</v>
-      </c>
       <c r="AL22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN22" t="s">
         <v>97</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AP22" t="s">
         <v>118</v>
       </c>
-      <c r="AO22">
+      <c r="AQ22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3333,62 +3455,65 @@
       <c r="F23" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>7.89</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>8</v>
       </c>
-      <c r="R23" t="s">
+      <c r="T23" t="s">
         <v>11</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="V23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V23">
-        <v>3</v>
-      </c>
       <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Z23">
         <v>4</v>
       </c>
-      <c r="Z23">
-        <v>3</v>
-      </c>
       <c r="AB23">
+        <v>3</v>
+      </c>
+      <c r="AD23">
         <v>4</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AF23" t="s">
         <v>14</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>18</v>
       </c>
-      <c r="AH23" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="s">
         <v>4</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AN23" t="s">
         <v>97</v>
       </c>
-      <c r="AN23" t="s">
+      <c r="AP23" t="s">
         <v>119</v>
       </c>
-      <c r="AO23">
+      <c r="AQ23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3410,107 +3535,113 @@
       <c r="G24" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>1.23</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>1.23</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>9</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="S24" t="s">
         <v>8</v>
       </c>
-      <c r="R24" t="s">
+      <c r="T24" t="s">
         <v>11</v>
       </c>
-      <c r="S24" t="s">
+      <c r="U24" t="s">
         <v>11</v>
       </c>
-      <c r="T24" s="2" t="s">
+      <c r="V24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U24" s="2" t="s">
+      <c r="W24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
       <c r="X24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <v>2</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>2</v>
+      </c>
+      <c r="AE24">
         <v>2</v>
       </c>
       <c r="AF24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH24" t="s">
         <v>16</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AI24" t="s">
         <v>16</v>
       </c>
-      <c r="AH24" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ24" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN24" t="s">
         <v>97</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AP24" t="s">
         <v>120</v>
       </c>
-      <c r="AO24">
+      <c r="AQ24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3532,107 +3663,113 @@
       <c r="G25" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>4.5599999999999996</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>4.5599999999999996</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>10</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="S25" t="s">
         <v>9</v>
       </c>
-      <c r="R25" t="s">
+      <c r="T25" t="s">
         <v>11</v>
       </c>
-      <c r="S25" t="s">
+      <c r="U25" t="s">
         <v>11</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="V25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="2" t="s">
+      <c r="W25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V25">
-        <v>2</v>
-      </c>
-      <c r="W25">
-        <v>2</v>
-      </c>
       <c r="X25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC25">
-        <v>3</v>
-      </c>
-      <c r="AD25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD25">
+        <v>3</v>
+      </c>
+      <c r="AE25">
+        <v>3</v>
+      </c>
+      <c r="AF25" t="s">
         <v>13</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AG25" t="s">
         <v>13</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>17</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AI25" t="s">
         <v>17</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AJ25" t="s">
         <v>15</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AK25" t="s">
         <v>15</v>
       </c>
-      <c r="AJ25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>3</v>
-      </c>
       <c r="AL25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN25" t="s">
         <v>97</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="AP25" t="s">
         <v>121</v>
       </c>
-      <c r="AO25">
+      <c r="AQ25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3648,62 +3785,65 @@
       <c r="F26" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>7.89</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>8</v>
       </c>
-      <c r="R26" t="s">
+      <c r="T26" t="s">
         <v>11</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="V26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V26">
-        <v>3</v>
-      </c>
       <c r="X26">
+        <v>3</v>
+      </c>
+      <c r="Z26">
         <v>4</v>
       </c>
-      <c r="Z26">
-        <v>3</v>
-      </c>
       <c r="AB26">
+        <v>3</v>
+      </c>
+      <c r="AD26">
         <v>4</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AF26" t="s">
         <v>14</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AH26" t="s">
         <v>18</v>
       </c>
-      <c r="AH26" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ26" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="s">
         <v>4</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AN26" t="s">
         <v>97</v>
       </c>
-      <c r="AN26" t="s">
+      <c r="AP26" t="s">
         <v>122</v>
       </c>
-      <c r="AO26">
+      <c r="AQ26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3725,107 +3865,113 @@
       <c r="G27" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>1.23</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>1.23</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="Q27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>9</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="S27" t="s">
         <v>8</v>
       </c>
-      <c r="R27" t="s">
+      <c r="T27" t="s">
         <v>11</v>
       </c>
-      <c r="S27" t="s">
+      <c r="U27" t="s">
         <v>11</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="V27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U27" s="2" t="s">
+      <c r="W27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
       <c r="X27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC27">
-        <v>2</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD27">
+        <v>2</v>
+      </c>
+      <c r="AE27">
         <v>2</v>
       </c>
       <c r="AF27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH27" t="s">
         <v>16</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AI27" t="s">
         <v>16</v>
       </c>
-      <c r="AH27" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN27" t="s">
         <v>97</v>
       </c>
-      <c r="AN27" t="s">
+      <c r="AP27" t="s">
         <v>123</v>
       </c>
-      <c r="AO27">
+      <c r="AQ27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3847,107 +3993,113 @@
       <c r="G28" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>4.5599999999999996</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>4.5599999999999996</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="P28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="Q28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
         <v>10</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="S28" t="s">
         <v>9</v>
       </c>
-      <c r="R28" t="s">
+      <c r="T28" t="s">
         <v>11</v>
       </c>
-      <c r="S28" t="s">
+      <c r="U28" t="s">
         <v>11</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="V28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U28" s="2" t="s">
+      <c r="W28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V28">
-        <v>2</v>
-      </c>
-      <c r="W28">
-        <v>2</v>
-      </c>
       <c r="X28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC28">
-        <v>3</v>
-      </c>
-      <c r="AD28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD28">
+        <v>3</v>
+      </c>
+      <c r="AE28">
+        <v>3</v>
+      </c>
+      <c r="AF28" t="s">
         <v>13</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AG28" t="s">
         <v>13</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AH28" t="s">
         <v>17</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AI28" t="s">
         <v>17</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="AJ28" t="s">
         <v>15</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AK28" t="s">
         <v>15</v>
       </c>
-      <c r="AJ28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>3</v>
-      </c>
       <c r="AL28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN28" t="s">
         <v>97</v>
       </c>
-      <c r="AN28" t="s">
+      <c r="AP28" t="s">
         <v>124</v>
       </c>
-      <c r="AO28">
+      <c r="AQ28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3963,62 +4115,65 @@
       <c r="F29" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>7.89</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="P29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
         <v>8</v>
       </c>
-      <c r="R29" t="s">
+      <c r="T29" t="s">
         <v>11</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="V29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V29">
-        <v>3</v>
-      </c>
       <c r="X29">
+        <v>3</v>
+      </c>
+      <c r="Z29">
         <v>4</v>
       </c>
-      <c r="Z29">
-        <v>3</v>
-      </c>
       <c r="AB29">
+        <v>3</v>
+      </c>
+      <c r="AD29">
         <v>4</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AF29" t="s">
         <v>14</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AH29" t="s">
         <v>18</v>
       </c>
-      <c r="AH29" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="s">
         <v>4</v>
       </c>
-      <c r="AL29" t="s">
+      <c r="AN29" t="s">
         <v>97</v>
       </c>
-      <c r="AN29" t="s">
+      <c r="AP29" t="s">
         <v>125</v>
       </c>
-      <c r="AO29">
+      <c r="AQ29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4040,107 +4195,113 @@
       <c r="G30" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>1.23</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>1.23</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="P30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="Q30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
         <v>9</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="S30" t="s">
         <v>8</v>
       </c>
-      <c r="R30" t="s">
+      <c r="T30" t="s">
         <v>11</v>
       </c>
-      <c r="S30" t="s">
+      <c r="U30" t="s">
         <v>11</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="V30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U30" s="2" t="s">
+      <c r="W30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
       <c r="X30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>2</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD30">
+        <v>2</v>
+      </c>
+      <c r="AE30">
         <v>2</v>
       </c>
       <c r="AF30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH30" t="s">
         <v>16</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AI30" t="s">
         <v>16</v>
       </c>
-      <c r="AH30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN30" t="s">
         <v>97</v>
       </c>
-      <c r="AN30" t="s">
+      <c r="AP30" t="s">
         <v>126</v>
       </c>
-      <c r="AO30">
+      <c r="AQ30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4162,107 +4323,113 @@
       <c r="G31" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>4.5599999999999996</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>4.5599999999999996</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="Q31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
         <v>10</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="S31" t="s">
         <v>9</v>
       </c>
-      <c r="R31" t="s">
+      <c r="T31" t="s">
         <v>11</v>
       </c>
-      <c r="S31" t="s">
+      <c r="U31" t="s">
         <v>11</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="V31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U31" s="2" t="s">
+      <c r="W31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V31">
-        <v>2</v>
-      </c>
-      <c r="W31">
-        <v>2</v>
-      </c>
       <c r="X31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC31">
-        <v>3</v>
-      </c>
-      <c r="AD31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD31">
+        <v>3</v>
+      </c>
+      <c r="AE31">
+        <v>3</v>
+      </c>
+      <c r="AF31" t="s">
         <v>13</v>
       </c>
-      <c r="AE31" t="s">
+      <c r="AG31" t="s">
         <v>13</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AH31" t="s">
         <v>17</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AI31" t="s">
         <v>17</v>
       </c>
-      <c r="AH31" t="s">
+      <c r="AJ31" t="s">
         <v>15</v>
       </c>
-      <c r="AI31" t="s">
+      <c r="AK31" t="s">
         <v>15</v>
       </c>
-      <c r="AJ31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>3</v>
-      </c>
       <c r="AL31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN31" t="s">
         <v>97</v>
       </c>
-      <c r="AN31" t="s">
+      <c r="AP31" t="s">
         <v>127</v>
       </c>
-      <c r="AO31">
+      <c r="AQ31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4278,62 +4445,65 @@
       <c r="F32" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>7.89</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="P32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P32" t="s">
+      <c r="R32" t="s">
         <v>8</v>
       </c>
-      <c r="R32" t="s">
+      <c r="T32" t="s">
         <v>11</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="V32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V32">
-        <v>3</v>
-      </c>
       <c r="X32">
+        <v>3</v>
+      </c>
+      <c r="Z32">
         <v>4</v>
       </c>
-      <c r="Z32">
-        <v>3</v>
-      </c>
       <c r="AB32">
+        <v>3</v>
+      </c>
+      <c r="AD32">
         <v>4</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AF32" t="s">
         <v>14</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AH32" t="s">
         <v>18</v>
       </c>
-      <c r="AH32" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="s">
         <v>4</v>
       </c>
-      <c r="AL32" t="s">
+      <c r="AN32" t="s">
         <v>97</v>
       </c>
-      <c r="AN32" t="s">
+      <c r="AP32" t="s">
         <v>128</v>
       </c>
-      <c r="AO32">
+      <c r="AQ32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4355,107 +4525,113 @@
       <c r="G33" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>1.23</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>1.23</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="P33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="Q33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>9</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="S33" t="s">
         <v>8</v>
       </c>
-      <c r="R33" t="s">
+      <c r="T33" t="s">
         <v>11</v>
       </c>
-      <c r="S33" t="s">
+      <c r="U33" t="s">
         <v>11</v>
       </c>
-      <c r="T33" s="2" t="s">
+      <c r="V33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U33" s="2" t="s">
+      <c r="W33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>1</v>
-      </c>
       <c r="X33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>2</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>2</v>
+      </c>
+      <c r="AE33">
         <v>2</v>
       </c>
       <c r="AF33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH33" t="s">
         <v>16</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AI33" t="s">
         <v>16</v>
       </c>
-      <c r="AH33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ33" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN33" t="s">
         <v>97</v>
       </c>
-      <c r="AN33" t="s">
+      <c r="AP33" t="s">
         <v>129</v>
       </c>
-      <c r="AO33">
+      <c r="AQ33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4477,107 +4653,113 @@
       <c r="G34" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>4.5599999999999996</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>4.5599999999999996</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="P34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="Q34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P34" t="s">
+      <c r="R34" t="s">
         <v>10</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="S34" t="s">
         <v>9</v>
       </c>
-      <c r="R34" t="s">
+      <c r="T34" t="s">
         <v>11</v>
       </c>
-      <c r="S34" t="s">
+      <c r="U34" t="s">
         <v>11</v>
       </c>
-      <c r="T34" s="2" t="s">
+      <c r="V34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U34" s="2" t="s">
+      <c r="W34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V34">
-        <v>2</v>
-      </c>
-      <c r="W34">
-        <v>2</v>
-      </c>
       <c r="X34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC34">
-        <v>3</v>
-      </c>
-      <c r="AD34" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD34">
+        <v>3</v>
+      </c>
+      <c r="AE34">
+        <v>3</v>
+      </c>
+      <c r="AF34" t="s">
         <v>13</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AG34" t="s">
         <v>13</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AH34" t="s">
         <v>17</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AI34" t="s">
         <v>17</v>
       </c>
-      <c r="AH34" t="s">
+      <c r="AJ34" t="s">
         <v>15</v>
       </c>
-      <c r="AI34" t="s">
+      <c r="AK34" t="s">
         <v>15</v>
       </c>
-      <c r="AJ34" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>3</v>
-      </c>
       <c r="AL34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN34" t="s">
         <v>97</v>
       </c>
-      <c r="AN34" t="s">
+      <c r="AP34" t="s">
         <v>130</v>
       </c>
-      <c r="AO34">
+      <c r="AQ34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4593,62 +4775,65 @@
       <c r="F35" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>7.89</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="P35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P35" t="s">
+      <c r="R35" t="s">
         <v>8</v>
       </c>
-      <c r="R35" t="s">
+      <c r="T35" t="s">
         <v>11</v>
       </c>
-      <c r="T35" s="2" t="s">
+      <c r="V35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V35">
-        <v>3</v>
-      </c>
       <c r="X35">
+        <v>3</v>
+      </c>
+      <c r="Z35">
         <v>4</v>
       </c>
-      <c r="Z35">
-        <v>3</v>
-      </c>
       <c r="AB35">
+        <v>3</v>
+      </c>
+      <c r="AD35">
         <v>4</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AF35" t="s">
         <v>14</v>
       </c>
-      <c r="AF35" t="s">
+      <c r="AH35" t="s">
         <v>18</v>
       </c>
-      <c r="AH35" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="s">
         <v>4</v>
       </c>
-      <c r="AL35" t="s">
+      <c r="AN35" t="s">
         <v>97</v>
       </c>
-      <c r="AN35" t="s">
+      <c r="AP35" t="s">
         <v>131</v>
       </c>
-      <c r="AO35">
+      <c r="AQ35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4664,62 +4849,65 @@
       <c r="F36" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>7.89</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="P36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P36" t="s">
+      <c r="R36" t="s">
         <v>9</v>
       </c>
-      <c r="R36" t="s">
+      <c r="T36" t="s">
         <v>11</v>
       </c>
-      <c r="T36" s="2" t="s">
+      <c r="V36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V36">
-        <v>3</v>
-      </c>
       <c r="X36">
+        <v>3</v>
+      </c>
+      <c r="Z36">
         <v>4</v>
       </c>
-      <c r="Z36">
-        <v>3</v>
-      </c>
       <c r="AB36">
+        <v>3</v>
+      </c>
+      <c r="AD36">
         <v>4</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AF36" t="s">
         <v>14</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AH36" t="s">
         <v>18</v>
       </c>
-      <c r="AH36" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="s">
         <v>4</v>
       </c>
-      <c r="AL36" t="s">
+      <c r="AN36" t="s">
         <v>97</v>
       </c>
-      <c r="AN36" t="s">
+      <c r="AP36" t="s">
         <v>132</v>
       </c>
-      <c r="AO36">
+      <c r="AQ36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4741,107 +4929,113 @@
       <c r="G37" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>1.23</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>1.23</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="Q37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P37" t="s">
+      <c r="R37" t="s">
         <v>10</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="S37" t="s">
         <v>8</v>
       </c>
-      <c r="R37" t="s">
+      <c r="T37" t="s">
         <v>11</v>
       </c>
-      <c r="S37" t="s">
+      <c r="U37" t="s">
         <v>11</v>
       </c>
-      <c r="T37" s="2" t="s">
+      <c r="V37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U37" s="2" t="s">
+      <c r="W37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37">
-        <v>1</v>
-      </c>
       <c r="X37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC37">
-        <v>2</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD37">
+        <v>2</v>
+      </c>
+      <c r="AE37">
         <v>2</v>
       </c>
       <c r="AF37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH37" t="s">
         <v>16</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AI37" t="s">
         <v>16</v>
       </c>
-      <c r="AH37" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN37" t="s">
         <v>97</v>
       </c>
-      <c r="AN37" t="s">
+      <c r="AP37" t="s">
         <v>133</v>
       </c>
-      <c r="AO37">
+      <c r="AQ37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4863,107 +5057,113 @@
       <c r="G38" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>4.5599999999999996</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>4.5599999999999996</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="P38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="Q38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P38" t="s">
+      <c r="R38" t="s">
         <v>8</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="S38" t="s">
         <v>9</v>
       </c>
-      <c r="R38" t="s">
+      <c r="T38" t="s">
         <v>11</v>
       </c>
-      <c r="S38" t="s">
+      <c r="U38" t="s">
         <v>11</v>
       </c>
-      <c r="T38" s="2" t="s">
+      <c r="V38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U38" s="2" t="s">
+      <c r="W38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V38">
-        <v>2</v>
-      </c>
-      <c r="W38">
-        <v>2</v>
-      </c>
       <c r="X38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC38">
-        <v>3</v>
-      </c>
-      <c r="AD38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD38">
+        <v>3</v>
+      </c>
+      <c r="AE38">
+        <v>3</v>
+      </c>
+      <c r="AF38" t="s">
         <v>13</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AG38" t="s">
         <v>13</v>
       </c>
-      <c r="AF38" t="s">
+      <c r="AH38" t="s">
         <v>17</v>
       </c>
-      <c r="AG38" t="s">
+      <c r="AI38" t="s">
         <v>17</v>
       </c>
-      <c r="AH38" t="s">
+      <c r="AJ38" t="s">
         <v>15</v>
       </c>
-      <c r="AI38" t="s">
+      <c r="AK38" t="s">
         <v>15</v>
       </c>
-      <c r="AJ38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>3</v>
-      </c>
       <c r="AL38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN38" t="s">
         <v>97</v>
       </c>
-      <c r="AN38" t="s">
+      <c r="AP38" t="s">
         <v>134</v>
       </c>
-      <c r="AO38">
+      <c r="AQ38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4979,187 +5179,190 @@
       <c r="F39" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <v>7.89</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="P39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P39" t="s">
+      <c r="R39" t="s">
         <v>9</v>
       </c>
-      <c r="R39" t="s">
+      <c r="T39" t="s">
         <v>11</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="V39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
       <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
         <v>4</v>
       </c>
-      <c r="Z39">
-        <v>3</v>
-      </c>
       <c r="AB39">
+        <v>3</v>
+      </c>
+      <c r="AD39">
         <v>4</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AF39" t="s">
         <v>14</v>
       </c>
-      <c r="AF39" t="s">
+      <c r="AH39" t="s">
         <v>18</v>
       </c>
-      <c r="AH39" t="s">
-        <v>0</v>
-      </c>
       <c r="AJ39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="s">
         <v>4</v>
       </c>
-      <c r="AL39" t="s">
+      <c r="AN39" t="s">
         <v>97</v>
       </c>
-      <c r="AN39" t="s">
+      <c r="AP39" t="s">
         <v>135</v>
       </c>
-      <c r="AO39">
+      <c r="AQ39">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="O2" r:id="rId3"/>
-    <hyperlink ref="N4" r:id="rId4"/>
-    <hyperlink ref="O3" r:id="rId5"/>
-    <hyperlink ref="T2" r:id="rId6"/>
-    <hyperlink ref="T3" r:id="rId7"/>
-    <hyperlink ref="T4" r:id="rId8"/>
-    <hyperlink ref="U2" r:id="rId9"/>
-    <hyperlink ref="U3" r:id="rId10"/>
-    <hyperlink ref="N5" r:id="rId11"/>
-    <hyperlink ref="N6" r:id="rId12"/>
-    <hyperlink ref="O5" r:id="rId13"/>
-    <hyperlink ref="N7" r:id="rId14"/>
-    <hyperlink ref="O6" r:id="rId15"/>
-    <hyperlink ref="T5" r:id="rId16"/>
-    <hyperlink ref="T6" r:id="rId17"/>
-    <hyperlink ref="T7" r:id="rId18"/>
-    <hyperlink ref="U5" r:id="rId19"/>
-    <hyperlink ref="U6" r:id="rId20"/>
-    <hyperlink ref="N8" r:id="rId21"/>
-    <hyperlink ref="N9" r:id="rId22"/>
-    <hyperlink ref="O8" r:id="rId23"/>
-    <hyperlink ref="N10" r:id="rId24"/>
-    <hyperlink ref="O9" r:id="rId25"/>
-    <hyperlink ref="T8" r:id="rId26"/>
-    <hyperlink ref="T9" r:id="rId27"/>
-    <hyperlink ref="T10" r:id="rId28"/>
-    <hyperlink ref="U8" r:id="rId29"/>
-    <hyperlink ref="U9" r:id="rId30"/>
-    <hyperlink ref="N11" r:id="rId31"/>
-    <hyperlink ref="N12" r:id="rId32"/>
-    <hyperlink ref="O11" r:id="rId33"/>
-    <hyperlink ref="N13" r:id="rId34"/>
-    <hyperlink ref="O12" r:id="rId35"/>
-    <hyperlink ref="T11" r:id="rId36"/>
-    <hyperlink ref="T12" r:id="rId37"/>
-    <hyperlink ref="T13" r:id="rId38"/>
-    <hyperlink ref="U11" r:id="rId39"/>
-    <hyperlink ref="U12" r:id="rId40"/>
-    <hyperlink ref="N14" r:id="rId41"/>
-    <hyperlink ref="N15" r:id="rId42"/>
-    <hyperlink ref="O14" r:id="rId43"/>
-    <hyperlink ref="N16" r:id="rId44"/>
-    <hyperlink ref="O15" r:id="rId45"/>
-    <hyperlink ref="T14" r:id="rId46"/>
-    <hyperlink ref="T15" r:id="rId47"/>
-    <hyperlink ref="T16" r:id="rId48"/>
-    <hyperlink ref="U14" r:id="rId49"/>
-    <hyperlink ref="U15" r:id="rId50"/>
-    <hyperlink ref="N17" r:id="rId51"/>
-    <hyperlink ref="T17" r:id="rId52"/>
-    <hyperlink ref="N18" r:id="rId53"/>
-    <hyperlink ref="N19" r:id="rId54"/>
-    <hyperlink ref="O18" r:id="rId55"/>
-    <hyperlink ref="N20" r:id="rId56"/>
-    <hyperlink ref="O19" r:id="rId57"/>
-    <hyperlink ref="T18" r:id="rId58"/>
-    <hyperlink ref="T19" r:id="rId59"/>
-    <hyperlink ref="T20" r:id="rId60"/>
-    <hyperlink ref="U18" r:id="rId61"/>
-    <hyperlink ref="U19" r:id="rId62"/>
-    <hyperlink ref="N21" r:id="rId63"/>
-    <hyperlink ref="N22" r:id="rId64"/>
-    <hyperlink ref="O21" r:id="rId65"/>
-    <hyperlink ref="N23" r:id="rId66"/>
-    <hyperlink ref="O22" r:id="rId67"/>
-    <hyperlink ref="T21" r:id="rId68"/>
-    <hyperlink ref="T22" r:id="rId69"/>
-    <hyperlink ref="T23" r:id="rId70"/>
-    <hyperlink ref="U21" r:id="rId71"/>
-    <hyperlink ref="U22" r:id="rId72"/>
-    <hyperlink ref="N24" r:id="rId73"/>
-    <hyperlink ref="N25" r:id="rId74"/>
-    <hyperlink ref="O24" r:id="rId75"/>
-    <hyperlink ref="N26" r:id="rId76"/>
-    <hyperlink ref="O25" r:id="rId77"/>
-    <hyperlink ref="T24" r:id="rId78"/>
-    <hyperlink ref="T25" r:id="rId79"/>
-    <hyperlink ref="T26" r:id="rId80"/>
-    <hyperlink ref="U24" r:id="rId81"/>
-    <hyperlink ref="U25" r:id="rId82"/>
-    <hyperlink ref="N27" r:id="rId83"/>
-    <hyperlink ref="N28" r:id="rId84"/>
-    <hyperlink ref="O27" r:id="rId85"/>
-    <hyperlink ref="N29" r:id="rId86"/>
-    <hyperlink ref="O28" r:id="rId87"/>
-    <hyperlink ref="T27" r:id="rId88"/>
-    <hyperlink ref="T28" r:id="rId89"/>
-    <hyperlink ref="T29" r:id="rId90"/>
-    <hyperlink ref="U27" r:id="rId91"/>
-    <hyperlink ref="U28" r:id="rId92"/>
-    <hyperlink ref="N30" r:id="rId93"/>
-    <hyperlink ref="N31" r:id="rId94"/>
-    <hyperlink ref="O30" r:id="rId95"/>
-    <hyperlink ref="N32" r:id="rId96"/>
-    <hyperlink ref="O31" r:id="rId97"/>
-    <hyperlink ref="T30" r:id="rId98"/>
-    <hyperlink ref="T31" r:id="rId99"/>
-    <hyperlink ref="T32" r:id="rId100"/>
-    <hyperlink ref="U30" r:id="rId101"/>
-    <hyperlink ref="U31" r:id="rId102"/>
-    <hyperlink ref="N33" r:id="rId103"/>
-    <hyperlink ref="N34" r:id="rId104"/>
-    <hyperlink ref="O33" r:id="rId105"/>
-    <hyperlink ref="N35" r:id="rId106"/>
-    <hyperlink ref="O34" r:id="rId107"/>
-    <hyperlink ref="T33" r:id="rId108"/>
-    <hyperlink ref="T34" r:id="rId109"/>
-    <hyperlink ref="T35" r:id="rId110"/>
-    <hyperlink ref="U33" r:id="rId111"/>
-    <hyperlink ref="U34" r:id="rId112"/>
-    <hyperlink ref="N36" r:id="rId113"/>
-    <hyperlink ref="T36" r:id="rId114"/>
-    <hyperlink ref="N37" r:id="rId115"/>
-    <hyperlink ref="N38" r:id="rId116"/>
-    <hyperlink ref="O37" r:id="rId117"/>
-    <hyperlink ref="N39" r:id="rId118"/>
-    <hyperlink ref="O38" r:id="rId119"/>
-    <hyperlink ref="T37" r:id="rId120"/>
-    <hyperlink ref="T38" r:id="rId121"/>
-    <hyperlink ref="T39" r:id="rId122"/>
-    <hyperlink ref="U37" r:id="rId123"/>
-    <hyperlink ref="U38" r:id="rId124"/>
+    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="P3" r:id="rId2"/>
+    <hyperlink ref="Q2" r:id="rId3"/>
+    <hyperlink ref="P4" r:id="rId4"/>
+    <hyperlink ref="Q3" r:id="rId5"/>
+    <hyperlink ref="V2" r:id="rId6"/>
+    <hyperlink ref="V3" r:id="rId7"/>
+    <hyperlink ref="V4" r:id="rId8"/>
+    <hyperlink ref="W2" r:id="rId9"/>
+    <hyperlink ref="W3" r:id="rId10"/>
+    <hyperlink ref="P5" r:id="rId11"/>
+    <hyperlink ref="P6" r:id="rId12"/>
+    <hyperlink ref="Q5" r:id="rId13"/>
+    <hyperlink ref="P7" r:id="rId14"/>
+    <hyperlink ref="Q6" r:id="rId15"/>
+    <hyperlink ref="V5" r:id="rId16"/>
+    <hyperlink ref="V6" r:id="rId17"/>
+    <hyperlink ref="V7" r:id="rId18"/>
+    <hyperlink ref="W5" r:id="rId19"/>
+    <hyperlink ref="W6" r:id="rId20"/>
+    <hyperlink ref="P8" r:id="rId21"/>
+    <hyperlink ref="P9" r:id="rId22"/>
+    <hyperlink ref="Q8" r:id="rId23"/>
+    <hyperlink ref="P10" r:id="rId24"/>
+    <hyperlink ref="Q9" r:id="rId25"/>
+    <hyperlink ref="V8" r:id="rId26"/>
+    <hyperlink ref="V9" r:id="rId27"/>
+    <hyperlink ref="V10" r:id="rId28"/>
+    <hyperlink ref="W8" r:id="rId29"/>
+    <hyperlink ref="W9" r:id="rId30"/>
+    <hyperlink ref="P11" r:id="rId31"/>
+    <hyperlink ref="P12" r:id="rId32"/>
+    <hyperlink ref="Q11" r:id="rId33"/>
+    <hyperlink ref="P13" r:id="rId34"/>
+    <hyperlink ref="Q12" r:id="rId35"/>
+    <hyperlink ref="V11" r:id="rId36"/>
+    <hyperlink ref="V12" r:id="rId37"/>
+    <hyperlink ref="V13" r:id="rId38"/>
+    <hyperlink ref="W11" r:id="rId39"/>
+    <hyperlink ref="W12" r:id="rId40"/>
+    <hyperlink ref="P14" r:id="rId41"/>
+    <hyperlink ref="P15" r:id="rId42"/>
+    <hyperlink ref="Q14" r:id="rId43"/>
+    <hyperlink ref="P16" r:id="rId44"/>
+    <hyperlink ref="Q15" r:id="rId45"/>
+    <hyperlink ref="V14" r:id="rId46"/>
+    <hyperlink ref="V15" r:id="rId47"/>
+    <hyperlink ref="V16" r:id="rId48"/>
+    <hyperlink ref="W14" r:id="rId49"/>
+    <hyperlink ref="W15" r:id="rId50"/>
+    <hyperlink ref="P17" r:id="rId51"/>
+    <hyperlink ref="V17" r:id="rId52"/>
+    <hyperlink ref="P18" r:id="rId53"/>
+    <hyperlink ref="P19" r:id="rId54"/>
+    <hyperlink ref="Q18" r:id="rId55"/>
+    <hyperlink ref="P20" r:id="rId56"/>
+    <hyperlink ref="Q19" r:id="rId57"/>
+    <hyperlink ref="V18" r:id="rId58"/>
+    <hyperlink ref="V19" r:id="rId59"/>
+    <hyperlink ref="V20" r:id="rId60"/>
+    <hyperlink ref="W18" r:id="rId61"/>
+    <hyperlink ref="W19" r:id="rId62"/>
+    <hyperlink ref="P21" r:id="rId63"/>
+    <hyperlink ref="P22" r:id="rId64"/>
+    <hyperlink ref="Q21" r:id="rId65"/>
+    <hyperlink ref="P23" r:id="rId66"/>
+    <hyperlink ref="Q22" r:id="rId67"/>
+    <hyperlink ref="V21" r:id="rId68"/>
+    <hyperlink ref="V22" r:id="rId69"/>
+    <hyperlink ref="V23" r:id="rId70"/>
+    <hyperlink ref="W21" r:id="rId71"/>
+    <hyperlink ref="W22" r:id="rId72"/>
+    <hyperlink ref="P24" r:id="rId73"/>
+    <hyperlink ref="P25" r:id="rId74"/>
+    <hyperlink ref="Q24" r:id="rId75"/>
+    <hyperlink ref="P26" r:id="rId76"/>
+    <hyperlink ref="Q25" r:id="rId77"/>
+    <hyperlink ref="V24" r:id="rId78"/>
+    <hyperlink ref="V25" r:id="rId79"/>
+    <hyperlink ref="V26" r:id="rId80"/>
+    <hyperlink ref="W24" r:id="rId81"/>
+    <hyperlink ref="W25" r:id="rId82"/>
+    <hyperlink ref="P27" r:id="rId83"/>
+    <hyperlink ref="P28" r:id="rId84"/>
+    <hyperlink ref="Q27" r:id="rId85"/>
+    <hyperlink ref="P29" r:id="rId86"/>
+    <hyperlink ref="Q28" r:id="rId87"/>
+    <hyperlink ref="V27" r:id="rId88"/>
+    <hyperlink ref="V28" r:id="rId89"/>
+    <hyperlink ref="V29" r:id="rId90"/>
+    <hyperlink ref="W27" r:id="rId91"/>
+    <hyperlink ref="W28" r:id="rId92"/>
+    <hyperlink ref="P30" r:id="rId93"/>
+    <hyperlink ref="P31" r:id="rId94"/>
+    <hyperlink ref="Q30" r:id="rId95"/>
+    <hyperlink ref="P32" r:id="rId96"/>
+    <hyperlink ref="Q31" r:id="rId97"/>
+    <hyperlink ref="V30" r:id="rId98"/>
+    <hyperlink ref="V31" r:id="rId99"/>
+    <hyperlink ref="V32" r:id="rId100"/>
+    <hyperlink ref="W30" r:id="rId101"/>
+    <hyperlink ref="W31" r:id="rId102"/>
+    <hyperlink ref="P33" r:id="rId103"/>
+    <hyperlink ref="P34" r:id="rId104"/>
+    <hyperlink ref="Q33" r:id="rId105"/>
+    <hyperlink ref="P35" r:id="rId106"/>
+    <hyperlink ref="Q34" r:id="rId107"/>
+    <hyperlink ref="V33" r:id="rId108"/>
+    <hyperlink ref="V34" r:id="rId109"/>
+    <hyperlink ref="V35" r:id="rId110"/>
+    <hyperlink ref="W33" r:id="rId111"/>
+    <hyperlink ref="W34" r:id="rId112"/>
+    <hyperlink ref="P36" r:id="rId113"/>
+    <hyperlink ref="V36" r:id="rId114"/>
+    <hyperlink ref="P37" r:id="rId115"/>
+    <hyperlink ref="P38" r:id="rId116"/>
+    <hyperlink ref="Q37" r:id="rId117"/>
+    <hyperlink ref="P39" r:id="rId118"/>
+    <hyperlink ref="Q38" r:id="rId119"/>
+    <hyperlink ref="V37" r:id="rId120"/>
+    <hyperlink ref="V38" r:id="rId121"/>
+    <hyperlink ref="V39" r:id="rId122"/>
+    <hyperlink ref="W37" r:id="rId123"/>
+    <hyperlink ref="W38" r:id="rId124"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5179,9 +5382,9 @@
       <selection activeCell="A7" sqref="A7:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5189,7 +5392,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5197,7 +5400,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5205,7 +5408,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5213,7 +5416,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -5221,7 +5424,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -5247,12 +5450,12 @@
       <selection activeCell="A5" sqref="A5:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5263,7 +5466,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -5274,7 +5477,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>141</v>
       </c>
@@ -5282,7 +5485,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -5305,14 +5508,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5326,7 +5529,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -5337,7 +5540,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -5345,7 +5548,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -5363,25 +5566,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5434,7 +5637,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5454,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -5477,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -5497,7 +5700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -5517,7 +5720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5537,7 +5740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -5554,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -5577,7 +5780,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -5600,7 +5803,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -5620,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5640,15 +5843,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -5660,15 +5866,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -5677,15 +5886,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -5693,16 +5902,19 @@
       <c r="F14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -5710,19 +5922,16 @@
       <c r="F15" t="b">
         <v>1</v>
       </c>
-      <c r="M15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -5730,19 +5939,16 @@
       <c r="F16" t="b">
         <v>0</v>
       </c>
-      <c r="M16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -5750,16 +5956,19 @@
       <c r="F17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -5771,15 +5980,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -5788,15 +5997,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -5804,22 +6013,19 @@
       <c r="F20" t="b">
         <v>0</v>
       </c>
-      <c r="G20" t="s">
-        <v>81</v>
-      </c>
       <c r="M20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -5827,19 +6033,16 @@
       <c r="F21" t="b">
         <v>1</v>
       </c>
-      <c r="G21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
         <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -5847,16 +6050,22 @@
       <c r="F22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="G22" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -5864,19 +6073,19 @@
       <c r="F23" t="b">
         <v>1</v>
       </c>
-      <c r="M23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -5884,19 +6093,16 @@
       <c r="F24" t="b">
         <v>0</v>
       </c>
-      <c r="M24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -5904,16 +6110,19 @@
       <c r="F25" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -5925,15 +6134,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -5942,9 +6151,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
@@ -5958,16 +6167,13 @@
       <c r="F28" t="b">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
@@ -5981,22 +6187,16 @@
       <c r="F29" t="b">
         <v>1</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -6004,16 +6204,22 @@
       <c r="F30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -6021,10 +6227,16 @@
       <c r="F31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
@@ -6038,19 +6250,10 @@
       <c r="F32" t="b">
         <v>0</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>10</v>
-      </c>
-      <c r="M32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>57</v>
@@ -6064,28 +6267,16 @@
       <c r="F33" t="b">
         <v>1</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>10</v>
-      </c>
-      <c r="M33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -6093,22 +6284,25 @@
       <c r="F34" t="b">
         <v>0</v>
       </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
       <c r="M34" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -6116,16 +6310,28 @@
       <c r="F35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
         <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>59</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -6137,15 +6343,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>59</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -6154,15 +6363,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -6170,16 +6379,19 @@
       <c r="F38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="M38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -6188,18 +6400,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -6207,22 +6416,16 @@
       <c r="F40" t="b">
         <v>0</v>
       </c>
-      <c r="M40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -6231,15 +6434,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>78</v>
+      </c>
+      <c r="D42" t="s">
+        <v>59</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -6247,19 +6453,22 @@
       <c r="F42" t="b">
         <v>0</v>
       </c>
-      <c r="N42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="M42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>78</v>
+      </c>
+      <c r="D43" t="s">
+        <v>59</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -6267,13 +6476,10 @@
       <c r="F43" t="b">
         <v>1</v>
       </c>
-      <c r="N43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
         <v>57</v>
@@ -6287,159 +6493,199 @@
       <c r="F44" t="b">
         <v>0</v>
       </c>
-      <c r="O44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
         <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="b">
-        <v>0</v>
-      </c>
-      <c r="O45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>1</v>
+      </c>
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="O47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
         <v>57</v>
       </c>
       <c r="C48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
         <v>67</v>
       </c>
-      <c r="E48" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48" t="s">
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="3" t="s">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="3" t="s">
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="1665" windowWidth="25605" windowHeight="14625"/>
+    <workbookView xWindow="4940" yWindow="1660" windowWidth="25600" windowHeight="14620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TypeTest" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
     <t>xcategoricalmref_value</t>
   </si>
   <si>
-    <t>xcategoricalmrefnillable_value</t>
+    <t>xcatmrefnillable_value</t>
   </si>
 </sst>
 </file>
@@ -558,9 +558,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -576,7 +577,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -585,6 +586,7 @@
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -887,40 +889,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="24" customWidth="1"/>
-    <col min="39" max="39" width="23.42578125" customWidth="1"/>
-    <col min="40" max="40" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.28515625" customWidth="1"/>
+    <col min="39" max="39" width="23.5" customWidth="1"/>
+    <col min="40" max="40" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1054,7 +1056,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1188,7 +1190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1322,7 +1324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1402,7 +1404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1536,7 +1538,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1670,7 +1672,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1747,7 +1749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1878,7 +1880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2009,7 +2011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2086,7 +2088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2217,7 +2219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2348,7 +2350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2425,7 +2427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2556,7 +2558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2687,7 +2689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2764,7 +2766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2841,7 +2843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2972,7 +2974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3103,7 +3105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3180,7 +3182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3311,7 +3313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3439,7 +3441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3513,7 +3515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3641,7 +3643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3769,7 +3771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3843,7 +3845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3971,7 +3973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4099,7 +4101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4173,7 +4175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4301,7 +4303,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4429,7 +4431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4503,7 +4505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4631,7 +4633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4759,7 +4761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4833,7 +4835,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4907,7 +4909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5035,7 +5037,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5163,7 +5165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5382,9 +5384,9 @@
       <selection activeCell="A7" sqref="A7:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5392,7 +5394,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5400,7 +5402,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5408,7 +5410,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5416,7 +5418,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -5424,7 +5426,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -5450,12 +5452,12 @@
       <selection activeCell="A5" sqref="A5:A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5466,7 +5468,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -5477,7 +5479,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>141</v>
       </c>
@@ -5485,7 +5487,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>142</v>
       </c>
@@ -5508,14 +5510,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5529,7 +5531,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -5540,7 +5542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -5548,7 +5550,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -5568,23 +5570,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5637,7 +5639,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5657,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -5680,7 +5682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -5700,7 +5702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -5720,7 +5722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5740,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -5757,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -5780,7 +5782,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -5803,7 +5805,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -5823,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5843,7 +5845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -5866,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -5886,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5906,7 +5908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -5923,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -5940,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -5960,7 +5962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -5980,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -5997,7 +5999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -6017,7 +6019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -6034,7 +6036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -6057,7 +6059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -6077,7 +6079,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -6094,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -6114,7 +6116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -6134,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -6151,7 +6153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -6171,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -6188,7 +6190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -6211,7 +6213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -6234,7 +6236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -6251,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -6268,7 +6270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -6294,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -6320,7 +6322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -6343,7 +6345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -6363,7 +6365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -6383,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -6400,7 +6402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -6417,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -6434,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -6457,7 +6459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -6477,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -6497,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -6517,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -6537,7 +6539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -6557,7 +6559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -6580,7 +6582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -6606,7 +6608,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>143</v>
       </c>
@@ -6629,7 +6631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51" s="3" t="s">
         <v>149</v>
       </c>
@@ -6658,7 +6660,7 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52" s="3" t="s">
         <v>150</v>
       </c>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="1660" windowWidth="25600" windowHeight="14620" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37420" windowHeight="21100" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TypeTest" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="167">
   <si>
     <t>text</t>
   </si>
@@ -503,6 +503,27 @@
   </si>
   <si>
     <t>xcatmrefnillable_value</t>
+  </si>
+  <si>
+    <t>validationExpression</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>driverslicence</t>
+  </si>
+  <si>
+    <t>$('age').ge(18).value()</t>
+  </si>
+  <si>
+    <t>$('driverslicence').isNull().not().or($('age').isNull()).or($('age').lt(18)).value()</t>
   </si>
 </sst>
 </file>
@@ -558,9 +579,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -577,7 +600,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -587,6 +610,8 @@
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -5568,10 +5593,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5586,7 +5611,7 @@
     <col min="17" max="17" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5638,8 +5663,11 @@
       <c r="Q1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5659,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -5682,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -5702,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -5722,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5742,7 +5770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -5759,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -5782,7 +5810,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -5805,7 +5833,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -5825,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5845,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -5868,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -5888,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5908,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -5925,7 +5953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -6582,7 +6610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -6608,7 +6636,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>143</v>
       </c>
@@ -6631,7 +6659,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:18">
       <c r="A51" s="3" t="s">
         <v>149</v>
       </c>
@@ -6660,7 +6688,7 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:18">
       <c r="A52" s="3" t="s">
         <v>150</v>
       </c>
@@ -6684,10 +6712,67 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" t="s">
+        <v>163</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R55" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="1660" windowWidth="25600" windowHeight="14620" activeTab="4"/>
+    <workbookView xWindow="4980" yWindow="1660" windowWidth="25600" windowHeight="16740" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="TypeTest" sheetId="1" r:id="rId1"/>
-    <sheet name="TypeTestRef" sheetId="2" r:id="rId2"/>
+    <sheet name="org_molgenis_test_TypeTest" sheetId="1" r:id="rId1"/>
+    <sheet name="org_molgenis_test_TypeTestRef" sheetId="2" r:id="rId2"/>
     <sheet name="packages" sheetId="5" r:id="rId3"/>
     <sheet name="entities" sheetId="3" r:id="rId4"/>
     <sheet name="attributes" sheetId="4" r:id="rId5"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="162">
   <si>
     <t>text</t>
   </si>
@@ -439,18 +439,12 @@
     <t>parent</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Molgenis test package</t>
   </si>
   <si>
     <t>package</t>
   </si>
   <si>
-    <t>molgenis</t>
-  </si>
-  <si>
     <t>org</t>
   </si>
   <si>
@@ -503,6 +497,18 @@
   </si>
   <si>
     <t>xcatmrefnillable_value</t>
+  </si>
+  <si>
+    <t>org_molgenis</t>
+  </si>
+  <si>
+    <t>org_molgenis_test</t>
+  </si>
+  <si>
+    <t>org_molgenis_test_TypeTestRef</t>
+  </si>
+  <si>
+    <t>org_molgenis_test_TypeTest</t>
   </si>
 </sst>
 </file>
@@ -558,9 +564,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -577,7 +586,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -587,6 +596,9 @@
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -933,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
         <v>46</v>
@@ -945,10 +957,10 @@
         <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -1070,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1204,7 +1216,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1335,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1418,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -1552,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
@@ -1683,7 +1695,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
@@ -1763,7 +1775,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
@@ -1894,7 +1906,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
@@ -2022,7 +2034,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
@@ -2102,7 +2114,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -2233,7 +2245,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -2361,7 +2373,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F13" t="s">
         <v>4</v>
@@ -2441,7 +2453,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F14" t="s">
         <v>2</v>
@@ -2572,7 +2584,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F15" t="s">
         <v>3</v>
@@ -2700,7 +2712,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
         <v>4</v>
@@ -2777,7 +2789,7 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F17" t="s">
         <v>4</v>
@@ -2857,7 +2869,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
@@ -2988,7 +3000,7 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F19" t="s">
         <v>3</v>
@@ -3116,7 +3128,7 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
@@ -3196,7 +3208,7 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F21" t="s">
         <v>2</v>
@@ -3327,7 +3339,7 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F22" t="s">
         <v>3</v>
@@ -3452,7 +3464,7 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
@@ -3529,7 +3541,7 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F24" t="s">
         <v>2</v>
@@ -3657,7 +3669,7 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F25" t="s">
         <v>3</v>
@@ -3782,7 +3794,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
@@ -3859,7 +3871,7 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F27" t="s">
         <v>2</v>
@@ -3987,7 +3999,7 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F28" t="s">
         <v>3</v>
@@ -4112,7 +4124,7 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F29" t="s">
         <v>4</v>
@@ -4189,7 +4201,7 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
         <v>2</v>
@@ -4317,7 +4329,7 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F31" t="s">
         <v>3</v>
@@ -4442,7 +4454,7 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F32" t="s">
         <v>4</v>
@@ -4519,7 +4531,7 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F33" t="s">
         <v>2</v>
@@ -4647,7 +4659,7 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F34" t="s">
         <v>3</v>
@@ -4772,7 +4784,7 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F35" t="s">
         <v>4</v>
@@ -4846,7 +4858,7 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F36" t="s">
         <v>4</v>
@@ -4923,7 +4935,7 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F37" t="s">
         <v>2</v>
@@ -5051,7 +5063,7 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F38" t="s">
         <v>3</v>
@@ -5176,7 +5188,7 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F39" t="s">
         <v>4</v>
@@ -5381,7 +5393,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD50"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5448,12 +5460,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5470,26 +5483,26 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
         <v>138</v>
       </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5507,13 +5520,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5522,13 +5535,13 @@
         <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5536,7 +5549,7 @@
         <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -5547,12 +5560,12 @@
         <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5570,16 +5583,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -5633,10 +5646,10 @@
         <v>99</v>
       </c>
       <c r="P1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -5644,7 +5657,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -5664,7 +5677,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -5687,7 +5700,7 @@
         <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -5707,7 +5720,7 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -5727,7 +5740,7 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
@@ -5744,13 +5757,13 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -5761,10 +5774,10 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
@@ -5779,15 +5792,15 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -5802,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -5810,13 +5823,13 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -5830,13 +5843,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -5847,16 +5860,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -5870,16 +5883,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -5893,7 +5906,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
@@ -5913,7 +5926,7 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -5930,7 +5943,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
         <v>71</v>
@@ -5947,7 +5960,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
         <v>71</v>
@@ -5967,7 +5980,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
         <v>72</v>
@@ -5987,7 +6000,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
         <v>72</v>
@@ -6004,7 +6017,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
         <v>73</v>
@@ -6024,7 +6037,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
         <v>73</v>
@@ -6041,7 +6054,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
         <v>80</v>
@@ -6064,7 +6077,7 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
         <v>80</v>
@@ -6084,7 +6097,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
@@ -6101,7 +6114,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
@@ -6121,7 +6134,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
         <v>75</v>
@@ -6141,7 +6154,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
         <v>75</v>
@@ -6158,7 +6171,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -6178,7 +6191,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -6195,7 +6208,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
@@ -6218,7 +6231,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
         <v>67</v>
@@ -6241,7 +6254,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>76</v>
@@ -6258,7 +6271,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
         <v>76</v>
@@ -6275,7 +6288,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
@@ -6301,7 +6314,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
         <v>76</v>
@@ -6327,13 +6340,13 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
         <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -6350,13 +6363,13 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
         <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -6370,7 +6383,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
         <v>66</v>
@@ -6390,7 +6403,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
         <v>66</v>
@@ -6407,7 +6420,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
@@ -6424,7 +6437,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
@@ -6441,13 +6454,13 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
         <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -6464,13 +6477,13 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
         <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -6484,7 +6497,7 @@
         <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
         <v>66</v>
@@ -6504,7 +6517,7 @@
         <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
         <v>66</v>
@@ -6524,7 +6537,7 @@
         <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
         <v>66</v>
@@ -6544,7 +6557,7 @@
         <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
         <v>67</v>
@@ -6564,13 +6577,13 @@
         <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
         <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -6584,16 +6597,16 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
         <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -6605,15 +6618,15 @@
         <v>1</v>
       </c>
       <c r="Q49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
         <v>67</v>
@@ -6633,10 +6646,10 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>66</v>
@@ -6662,10 +6675,10 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>67</v>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1660" windowWidth="25600" windowHeight="16740" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="31020" windowHeight="18480" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="org_molgenis_test_TypeTest" sheetId="1" r:id="rId1"/>
+    <sheet name="TypeTest" sheetId="1" r:id="rId1"/>
     <sheet name="org_molgenis_test_TypeTestRef" sheetId="2" r:id="rId2"/>
     <sheet name="packages" sheetId="5" r:id="rId3"/>
     <sheet name="entities" sheetId="3" r:id="rId4"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="161">
   <si>
     <t>text</t>
   </si>
@@ -506,9 +506,6 @@
   </si>
   <si>
     <t>org_molgenis_test_TypeTestRef</t>
-  </si>
-  <si>
-    <t>org_molgenis_test_TypeTest</t>
   </si>
 </sst>
 </file>
@@ -564,9 +561,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -586,7 +586,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -599,6 +599,9 @@
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -5393,7 +5396,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5460,7 +5463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5520,7 +5523,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5547,9 +5550,6 @@
     <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>159</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -5583,8 +5583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5700,7 +5700,7 @@
         <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -5720,7 +5720,7 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -5740,7 +5740,7 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
@@ -5760,7 +5760,7 @@
         <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>150</v>
@@ -5777,7 +5777,7 @@
         <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
@@ -5800,7 +5800,7 @@
         <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -5823,7 +5823,7 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -5843,7 +5843,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -5863,7 +5863,7 @@
         <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
         <v>155</v>
@@ -5886,7 +5886,7 @@
         <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
         <v>155</v>
@@ -5906,7 +5906,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
@@ -5926,7 +5926,7 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -5943,7 +5943,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
         <v>71</v>
@@ -5960,7 +5960,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>71</v>
@@ -5980,7 +5980,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
         <v>72</v>
@@ -6000,7 +6000,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>72</v>
@@ -6017,7 +6017,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>73</v>
@@ -6037,7 +6037,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
         <v>73</v>
@@ -6054,7 +6054,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
         <v>80</v>
@@ -6077,7 +6077,7 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>80</v>
@@ -6097,7 +6097,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
@@ -6114,7 +6114,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
@@ -6134,7 +6134,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
         <v>75</v>
@@ -6154,7 +6154,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
         <v>75</v>
@@ -6171,7 +6171,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -6191,7 +6191,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -6208,7 +6208,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
@@ -6231,7 +6231,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
         <v>67</v>
@@ -6254,7 +6254,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
         <v>76</v>
@@ -6271,7 +6271,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
         <v>76</v>
@@ -6288,7 +6288,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
@@ -6314,7 +6314,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
         <v>76</v>
@@ -6340,12 +6340,12 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E36" t="b">
@@ -6363,12 +6363,12 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
         <v>77</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E37" t="b">
@@ -6383,7 +6383,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
         <v>66</v>
@@ -6403,7 +6403,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
         <v>66</v>
@@ -6420,7 +6420,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
@@ -6437,7 +6437,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
@@ -6454,12 +6454,12 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
         <v>78</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E42" t="b">
@@ -6477,12 +6477,12 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
         <v>78</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E43" t="b">
@@ -6497,7 +6497,7 @@
         <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
         <v>66</v>
@@ -6517,7 +6517,7 @@
         <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
         <v>66</v>
@@ -6537,7 +6537,7 @@
         <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
         <v>66</v>
@@ -6557,7 +6557,7 @@
         <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
         <v>67</v>
@@ -6577,12 +6577,12 @@
         <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
         <v>78</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E48" t="b">
@@ -6600,7 +6600,7 @@
         <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
         <v>78</v>
@@ -6626,7 +6626,7 @@
         <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
         <v>67</v>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="160">
   <si>
     <t>text</t>
   </si>
@@ -558,9 +558,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -577,7 +578,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -587,6 +588,7 @@
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -5568,10 +5570,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5582,11 +5584,12 @@
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5609,37 +5612,40 @@
         <v>79</v>
       </c>
       <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>94</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>99</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5655,11 +5661,14 @@
       <c r="F2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -5675,14 +5684,17 @@
       <c r="F3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="b">
-        <v>1</v>
+      <c r="H3" t="s">
+        <v>85</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -5698,11 +5710,14 @@
       <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -5718,11 +5733,14 @@
       <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5738,11 +5756,14 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -5758,8 +5779,11 @@
       <c r="F7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="H7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -5775,14 +5799,17 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="H8" t="s">
+        <v>153</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -5798,14 +5825,17 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="H9" t="s">
+        <v>154</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -5824,8 +5854,11 @@
       <c r="F10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5844,8 +5877,11 @@
       <c r="F11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -5864,11 +5900,14 @@
       <c r="F12" t="b">
         <v>0</v>
       </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="H12" t="s">
+        <v>158</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>159</v>
       </c>
@@ -5887,8 +5926,11 @@
       <c r="F13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="H13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5904,11 +5946,14 @@
       <c r="F14" t="b">
         <v>0</v>
       </c>
-      <c r="M14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -5924,8 +5969,11 @@
       <c r="F15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -5941,8 +5989,11 @@
       <c r="F16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -5958,11 +6009,14 @@
       <c r="F17" t="b">
         <v>1</v>
       </c>
-      <c r="M17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -5978,11 +6032,14 @@
       <c r="F18" t="b">
         <v>0</v>
       </c>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -5998,8 +6055,11 @@
       <c r="F19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -6015,11 +6075,14 @@
       <c r="F20" t="b">
         <v>0</v>
       </c>
-      <c r="M20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -6035,8 +6098,11 @@
       <c r="F21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -6055,11 +6121,14 @@
       <c r="G22" t="s">
         <v>81</v>
       </c>
-      <c r="M22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="H22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -6078,8 +6147,11 @@
       <c r="G23" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="H23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -6095,8 +6167,11 @@
       <c r="F24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -6112,11 +6187,14 @@
       <c r="F25" t="b">
         <v>1</v>
       </c>
-      <c r="M25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -6132,11 +6210,14 @@
       <c r="F26" t="b">
         <v>0</v>
       </c>
-      <c r="M26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -6152,8 +6233,11 @@
       <c r="F27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -6169,11 +6253,14 @@
       <c r="F28" t="b">
         <v>0</v>
       </c>
-      <c r="M28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -6189,8 +6276,11 @@
       <c r="F29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -6206,14 +6296,17 @@
       <c r="F30" t="b">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>0</v>
+      <c r="H30" t="s">
+        <v>31</v>
       </c>
       <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -6229,14 +6322,17 @@
       <c r="F31" t="b">
         <v>1</v>
       </c>
-      <c r="H31">
-        <v>0</v>
+      <c r="H31" t="s">
+        <v>32</v>
       </c>
       <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -6252,8 +6348,11 @@
       <c r="F32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="H32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -6269,8 +6368,11 @@
       <c r="F33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="H33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -6286,17 +6388,20 @@
       <c r="F34" t="b">
         <v>0</v>
       </c>
-      <c r="H34">
-        <v>0</v>
+      <c r="H34" t="s">
+        <v>35</v>
       </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>10</v>
       </c>
-      <c r="M34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -6312,17 +6417,20 @@
       <c r="F35" t="b">
         <v>1</v>
       </c>
-      <c r="H35">
-        <v>0</v>
+      <c r="H35" t="s">
+        <v>36</v>
       </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>10</v>
       </c>
-      <c r="M35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -6341,11 +6449,14 @@
       <c r="F36" t="b">
         <v>0</v>
       </c>
-      <c r="M36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="H36" t="s">
+        <v>52</v>
+      </c>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -6364,8 +6475,11 @@
       <c r="F37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="H37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -6381,11 +6495,14 @@
       <c r="F38" t="b">
         <v>0</v>
       </c>
-      <c r="M38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="H38" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -6401,8 +6518,11 @@
       <c r="F39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="H39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -6418,8 +6538,11 @@
       <c r="F40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="H40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -6435,8 +6558,11 @@
       <c r="F41" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="H41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -6455,11 +6581,14 @@
       <c r="F42" t="b">
         <v>0</v>
       </c>
-      <c r="M42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -6478,8 +6607,11 @@
       <c r="F43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="H43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -6495,11 +6627,14 @@
       <c r="F44" t="b">
         <v>0</v>
       </c>
-      <c r="N44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="H44" t="s">
+        <v>95</v>
+      </c>
+      <c r="O44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -6515,11 +6650,14 @@
       <c r="F45" t="b">
         <v>1</v>
       </c>
-      <c r="N45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="H45" t="s">
+        <v>96</v>
+      </c>
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -6535,11 +6673,14 @@
       <c r="F46" t="b">
         <v>0</v>
       </c>
-      <c r="O46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="H46" t="s">
+        <v>98</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -6555,11 +6696,14 @@
       <c r="F47" t="b">
         <v>0</v>
       </c>
-      <c r="O47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="H47" t="s">
+        <v>100</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -6578,11 +6722,14 @@
       <c r="F48" t="b">
         <v>1</v>
       </c>
-      <c r="O48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="H48" t="s">
+        <v>136</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>145</v>
       </c>
@@ -6601,14 +6748,17 @@
       <c r="F49" t="b">
         <v>1</v>
       </c>
-      <c r="L49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49" t="s">
+      <c r="H49" t="s">
+        <v>145</v>
+      </c>
+      <c r="M49" t="b">
+        <v>1</v>
+      </c>
+      <c r="R49" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>143</v>
       </c>
@@ -6624,14 +6774,17 @@
       <c r="F50" t="b">
         <v>1</v>
       </c>
-      <c r="L50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50" t="s">
+      <c r="H50" t="s">
+        <v>143</v>
+      </c>
+      <c r="M50" t="b">
+        <v>1</v>
+      </c>
+      <c r="R50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:18">
       <c r="A51" s="3" t="s">
         <v>149</v>
       </c>
@@ -6649,7 +6802,9 @@
         <v>0</v>
       </c>
       <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+      <c r="H51" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -6659,8 +6814,9 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="3" t="s">
         <v>150</v>
       </c>
@@ -6678,7 +6834,9 @@
         <v>0</v>
       </c>
       <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="H52" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -6688,6 +6846,7 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37420" windowHeight="21100" activeTab="4"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="31600" windowHeight="19200" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="TypeTest" sheetId="1" r:id="rId1"/>
+    <sheet name="org_molgenis_test_TypeTest" sheetId="1" r:id="rId1"/>
     <sheet name="TypeTestRef" sheetId="2" r:id="rId2"/>
     <sheet name="packages" sheetId="5" r:id="rId3"/>
     <sheet name="entities" sheetId="3" r:id="rId4"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="168">
   <si>
     <t>text</t>
   </si>
@@ -439,18 +439,12 @@
     <t>parent</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Molgenis test package</t>
   </si>
   <si>
     <t>package</t>
   </si>
   <si>
-    <t>molgenis</t>
-  </si>
-  <si>
     <t>org</t>
   </si>
   <si>
@@ -524,6 +518,15 @@
   </si>
   <si>
     <t>$('driverslicence').isNull().not().or($('age').isNull()).or($('age').lt(18)).value()</t>
+  </si>
+  <si>
+    <t>org_molgenis</t>
+  </si>
+  <si>
+    <t>org_molgenis_test</t>
+  </si>
+  <si>
+    <t>org_molgenis_test_TypeTest</t>
   </si>
 </sst>
 </file>
@@ -579,9 +582,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -600,7 +604,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -612,6 +616,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -958,10 +963,10 @@
         <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
         <v>46</v>
@@ -970,10 +975,10 @@
         <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -1095,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1229,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1360,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1443,7 +1448,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -1577,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
@@ -1708,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
@@ -1788,7 +1793,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
@@ -1919,7 +1924,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
@@ -2047,7 +2052,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
@@ -2127,7 +2132,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -2258,7 +2263,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -2386,7 +2391,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F13" t="s">
         <v>4</v>
@@ -2466,7 +2471,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F14" t="s">
         <v>2</v>
@@ -2597,7 +2602,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F15" t="s">
         <v>3</v>
@@ -2725,7 +2730,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F16" t="s">
         <v>4</v>
@@ -2802,7 +2807,7 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F17" t="s">
         <v>4</v>
@@ -2882,7 +2887,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
@@ -3013,7 +3018,7 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F19" t="s">
         <v>3</v>
@@ -3141,7 +3146,7 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F20" t="s">
         <v>4</v>
@@ -3221,7 +3226,7 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F21" t="s">
         <v>2</v>
@@ -3352,7 +3357,7 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F22" t="s">
         <v>3</v>
@@ -3477,7 +3482,7 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
@@ -3554,7 +3559,7 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F24" t="s">
         <v>2</v>
@@ -3682,7 +3687,7 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F25" t="s">
         <v>3</v>
@@ -3807,7 +3812,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
@@ -3884,7 +3889,7 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F27" t="s">
         <v>2</v>
@@ -4012,7 +4017,7 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F28" t="s">
         <v>3</v>
@@ -4137,7 +4142,7 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F29" t="s">
         <v>4</v>
@@ -4214,7 +4219,7 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
         <v>2</v>
@@ -4342,7 +4347,7 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F31" t="s">
         <v>3</v>
@@ -4467,7 +4472,7 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F32" t="s">
         <v>4</v>
@@ -4544,7 +4549,7 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F33" t="s">
         <v>2</v>
@@ -4672,7 +4677,7 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F34" t="s">
         <v>3</v>
@@ -4797,7 +4802,7 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F35" t="s">
         <v>4</v>
@@ -4871,7 +4876,7 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F36" t="s">
         <v>4</v>
@@ -4948,7 +4953,7 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F37" t="s">
         <v>2</v>
@@ -5076,7 +5081,7 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F38" t="s">
         <v>3</v>
@@ -5201,7 +5206,7 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F39" t="s">
         <v>4</v>
@@ -5474,11 +5479,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A100"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5495,26 +5501,26 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
         <v>138</v>
       </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5532,13 +5538,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5547,13 +5553,13 @@
         <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
         <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5561,7 +5567,7 @@
         <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -5571,13 +5577,10 @@
       <c r="A3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -5595,14 +5598,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R55" sqref="R55"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
@@ -5658,13 +5661,13 @@
         <v>99</v>
       </c>
       <c r="P1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -5715,7 +5718,7 @@
         <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -5735,7 +5738,7 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -5755,7 +5758,7 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
@@ -5772,13 +5775,13 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -5789,10 +5792,10 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
@@ -5807,15 +5810,15 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -5830,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -5838,7 +5841,7 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -5858,7 +5861,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
@@ -5875,13 +5878,13 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
         <v>59</v>
@@ -5898,13 +5901,13 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
@@ -5921,7 +5924,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
         <v>70</v>
@@ -5941,7 +5944,7 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -5958,7 +5961,7 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
         <v>71</v>
@@ -5975,7 +5978,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
         <v>71</v>
@@ -5995,7 +5998,7 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
         <v>72</v>
@@ -6015,7 +6018,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
         <v>72</v>
@@ -6032,7 +6035,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
         <v>73</v>
@@ -6052,7 +6055,7 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
         <v>73</v>
@@ -6069,7 +6072,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
         <v>80</v>
@@ -6092,7 +6095,7 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
         <v>80</v>
@@ -6112,7 +6115,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
@@ -6129,7 +6132,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
@@ -6149,7 +6152,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C26" t="s">
         <v>75</v>
@@ -6169,7 +6172,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
         <v>75</v>
@@ -6186,7 +6189,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
@@ -6206,7 +6209,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
@@ -6223,7 +6226,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
@@ -6246,7 +6249,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
         <v>67</v>
@@ -6269,7 +6272,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
         <v>76</v>
@@ -6286,7 +6289,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
         <v>76</v>
@@ -6303,7 +6306,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
@@ -6329,7 +6332,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
         <v>76</v>
@@ -6355,7 +6358,7 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C36" t="s">
         <v>77</v>
@@ -6378,7 +6381,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C37" t="s">
         <v>77</v>
@@ -6398,7 +6401,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
         <v>66</v>
@@ -6418,7 +6421,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s">
         <v>66</v>
@@ -6435,7 +6438,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
@@ -6452,7 +6455,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
@@ -6469,7 +6472,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
         <v>78</v>
@@ -6492,7 +6495,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s">
         <v>78</v>
@@ -6512,7 +6515,7 @@
         <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C44" t="s">
         <v>66</v>
@@ -6532,7 +6535,7 @@
         <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
         <v>66</v>
@@ -6552,7 +6555,7 @@
         <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
         <v>66</v>
@@ -6572,7 +6575,7 @@
         <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
         <v>67</v>
@@ -6592,7 +6595,7 @@
         <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s">
         <v>78</v>
@@ -6612,16 +6615,16 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C49" t="s">
         <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -6633,15 +6636,15 @@
         <v>1</v>
       </c>
       <c r="Q49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C50" t="s">
         <v>67</v>
@@ -6661,10 +6664,10 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>66</v>
@@ -6690,10 +6693,10 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>67</v>
@@ -6722,13 +6725,13 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C53" t="s">
         <v>66</v>
       </c>
       <c r="E53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -6736,10 +6739,10 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
@@ -6753,10 +6756,10 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -6768,10 +6771,10 @@
         <v>1</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="31600" windowHeight="19200" activeTab="4"/>
+    <workbookView xWindow="160" yWindow="340" windowWidth="31600" windowHeight="19200"/>
   </bookViews>
   <sheets>
     <sheet name="org_molgenis_test_TypeTest" sheetId="1" r:id="rId1"/>
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -942,6 +942,7 @@
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="14.5" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.33203125" customWidth="1"/>
     <col min="33" max="33" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -5598,8 +5599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6237,9 +6238,6 @@
       <c r="F30" t="b">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30">
         <v>10</v>
       </c>
@@ -6262,9 +6260,6 @@
       </c>
       <c r="H31">
         <v>0</v>
-      </c>
-      <c r="I31">
-        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:13">

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="340" windowWidth="31600" windowHeight="19200"/>
+    <workbookView xWindow="165" yWindow="345" windowWidth="22890" windowHeight="11070" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="org_molgenis_test_TypeTest" sheetId="1" r:id="rId1"/>
@@ -919,41 +919,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.33203125" customWidth="1"/>
-    <col min="33" max="33" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.28515625" customWidth="1"/>
+    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="24" customWidth="1"/>
-    <col min="39" max="39" width="23.5" customWidth="1"/>
-    <col min="40" max="40" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.33203125" customWidth="1"/>
+    <col min="39" max="39" width="23.42578125" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5415,9 +5415,9 @@
       <selection activeCell="A7" sqref="A7:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -5483,13 +5483,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -5542,14 +5542,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -5574,12 +5574,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -5599,23 +5599,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>147</v>
       </c>
@@ -6678,7 +6678,6 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -6686,7 +6685,7 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>148</v>
       </c>
@@ -6707,7 +6706,9 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="K52" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="O52" s="3"/>
@@ -6715,7 +6716,7 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -6732,7 +6733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>159</v>
       </c>
@@ -6749,7 +6750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>162</v>
       </c>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="340" windowWidth="31600" windowHeight="19200"/>
+    <workbookView xWindow="165" yWindow="345" windowWidth="31605" windowHeight="19200"/>
   </bookViews>
   <sheets>
     <sheet name="org_molgenis_test_TypeTest" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="entities" sheetId="3" r:id="rId4"/>
     <sheet name="attributes" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -605,20 +605,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -919,41 +919,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.33203125" customWidth="1"/>
-    <col min="33" max="33" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.28515625" customWidth="1"/>
+    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="24" customWidth="1"/>
-    <col min="39" max="39" width="23.5" customWidth="1"/>
-    <col min="40" max="40" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.33203125" customWidth="1"/>
+    <col min="39" max="39" width="23.42578125" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5412,12 +5412,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD50"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -5483,13 +5483,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -5542,14 +5542,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -5574,12 +5574,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -5600,22 +5600,22 @@
   <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>147</v>
       </c>
@@ -6686,7 +6686,7 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>148</v>
       </c>
@@ -6715,7 +6715,7 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>159</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>162</v>
       </c>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="345" windowWidth="31605" windowHeight="19200"/>
+    <workbookView xWindow="165" yWindow="345" windowWidth="22890" windowHeight="11070" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="org_molgenis_test_TypeTest" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="entities" sheetId="3" r:id="rId4"/>
     <sheet name="attributes" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -605,20 +605,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Gevolgde hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5412,7 +5412,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="A7" sqref="A7:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5599,8 +5599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6678,7 +6678,6 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -6707,7 +6706,9 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="K52" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="O52" s="3"/>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="345" windowWidth="22890" windowHeight="11070" activeTab="4"/>
+    <workbookView xWindow="160" yWindow="340" windowWidth="36220" windowHeight="17880" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="org_molgenis_test_TypeTest" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="178">
   <si>
     <t>text</t>
   </si>
@@ -527,6 +527,36 @@
   </si>
   <si>
     <t>org_molgenis_test_TypeTest</t>
+  </si>
+  <si>
+    <t>defaultValue</t>
+  </si>
+  <si>
+    <t>typeTestRef</t>
+  </si>
+  <si>
+    <t>typeTestRefLabel</t>
+  </si>
+  <si>
+    <t>ref1,ref2</t>
+  </si>
+  <si>
+    <t>ref1,ref3</t>
+  </si>
+  <si>
+    <t>test@x.y.z</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;html 2&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>http://www.nu.nl/</t>
+  </si>
+  <si>
+    <t>http://www.github.com/</t>
+  </si>
+  <si>
+    <t>xstringhidden</t>
   </si>
 </sst>
 </file>
@@ -582,7 +612,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -597,14 +627,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -617,6 +649,7 @@
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -920,40 +953,40 @@
   <dimension ref="A1:AR39"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.28515625" customWidth="1"/>
-    <col min="33" max="33" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.33203125" customWidth="1"/>
+    <col min="33" max="33" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="24" customWidth="1"/>
-    <col min="39" max="39" width="23.42578125" customWidth="1"/>
-    <col min="40" max="40" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.28515625" customWidth="1"/>
+    <col min="39" max="39" width="23.5" customWidth="1"/>
+    <col min="40" max="40" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1087,7 +1120,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1221,7 +1254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1355,7 +1388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1435,7 +1468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1569,7 +1602,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1703,7 +1736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1780,7 +1813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1911,7 +1944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2042,7 +2075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2119,7 +2152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2250,7 +2283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2381,7 +2414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2458,7 +2491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2589,7 +2622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2720,7 +2753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2797,7 +2830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2874,7 +2907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3005,7 +3038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3136,7 +3169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3213,7 +3246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3344,7 +3377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3472,7 +3505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3546,7 +3579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3674,7 +3707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3802,7 +3835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3876,7 +3909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4004,7 +4037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4132,7 +4165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4206,7 +4239,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4334,7 +4367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4462,7 +4495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4536,7 +4569,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4664,7 +4697,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4792,7 +4825,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4866,7 +4899,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4940,7 +4973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5068,7 +5101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5196,7 +5229,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5415,9 +5448,9 @@
       <selection activeCell="A7" sqref="A7:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5425,7 +5458,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5433,7 +5466,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5441,7 +5474,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5449,7 +5482,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -5457,7 +5490,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -5483,13 +5516,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5500,7 +5533,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -5511,7 +5544,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -5519,7 +5552,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -5542,14 +5575,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5563,7 +5596,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -5574,12 +5607,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -5597,25 +5630,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -5638,40 +5672,43 @@
         <v>79</v>
       </c>
       <c r="H1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>94</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>99</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>154</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>142</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5687,11 +5724,14 @@
       <c r="F2" t="b">
         <v>0</v>
       </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -5707,14 +5747,17 @@
       <c r="F3" t="b">
         <v>0</v>
       </c>
-      <c r="J3" t="b">
-        <v>1</v>
+      <c r="H3" t="s">
+        <v>170</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -5730,11 +5773,11 @@
       <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -5750,11 +5793,14 @@
       <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5770,11 +5816,14 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -5791,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -5807,14 +5856,17 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -5830,14 +5882,17 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="H9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -5856,8 +5911,11 @@
       <c r="F10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5876,8 +5934,11 @@
       <c r="F11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>156</v>
       </c>
@@ -5896,11 +5957,14 @@
       <c r="F12" t="b">
         <v>0</v>
       </c>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>171</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -5919,8 +5983,11 @@
       <c r="F13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5936,11 +6003,14 @@
       <c r="F14" t="b">
         <v>0</v>
       </c>
-      <c r="M14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H14" s="4">
+        <v>41852</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -5956,8 +6026,11 @@
       <c r="F15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H15" s="4">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -5973,8 +6046,11 @@
       <c r="F16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -5990,11 +6066,14 @@
       <c r="F17" t="b">
         <v>1</v>
       </c>
-      <c r="M17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -6010,11 +6089,14 @@
       <c r="F18" t="b">
         <v>0</v>
       </c>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>10.234</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -6030,8 +6112,11 @@
       <c r="F19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>15.666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -6047,11 +6132,14 @@
       <c r="F20" t="b">
         <v>0</v>
       </c>
-      <c r="M20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>173</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -6067,8 +6155,11 @@
       <c r="F21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -6087,11 +6178,14 @@
       <c r="G22" t="s">
         <v>81</v>
       </c>
-      <c r="M22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -6110,8 +6204,11 @@
       <c r="G23" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -6127,8 +6224,11 @@
       <c r="F24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -6144,11 +6244,14 @@
       <c r="F25" t="b">
         <v>1</v>
       </c>
-      <c r="M25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>174</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -6164,11 +6267,14 @@
       <c r="F26" t="b">
         <v>0</v>
       </c>
-      <c r="M26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>175</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -6184,8 +6290,11 @@
       <c r="F27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -6201,11 +6310,14 @@
       <c r="F28" t="b">
         <v>0</v>
       </c>
-      <c r="M28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -6221,8 +6333,11 @@
       <c r="F29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -6238,11 +6353,14 @@
       <c r="F30" t="b">
         <v>0</v>
       </c>
-      <c r="I30">
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="J30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -6259,10 +6377,13 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -6278,8 +6399,11 @@
       <c r="F32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>12342151234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -6295,8 +6419,11 @@
       <c r="F33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>12342151234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -6313,16 +6440,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>10</v>
       </c>
-      <c r="M34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -6339,16 +6469,19 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>10</v>
       </c>
-      <c r="M35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -6367,11 +6500,14 @@
       <c r="F36" t="b">
         <v>0</v>
       </c>
-      <c r="M36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>171</v>
+      </c>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -6390,8 +6526,11 @@
       <c r="F37" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -6407,11 +6546,14 @@
       <c r="F38" t="b">
         <v>0</v>
       </c>
-      <c r="M38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -6427,8 +6569,11 @@
       <c r="F39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -6444,8 +6589,11 @@
       <c r="F40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -6461,8 +6609,11 @@
       <c r="F41" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -6481,11 +6632,14 @@
       <c r="F42" t="b">
         <v>0</v>
       </c>
-      <c r="M42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -6504,8 +6658,11 @@
       <c r="F43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -6521,11 +6678,14 @@
       <c r="F44" t="b">
         <v>0</v>
       </c>
-      <c r="N44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>38</v>
+      </c>
+      <c r="O44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -6541,11 +6701,14 @@
       <c r="F45" t="b">
         <v>1</v>
       </c>
-      <c r="N45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>177</v>
+      </c>
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -6561,11 +6724,11 @@
       <c r="F46" t="b">
         <v>0</v>
       </c>
-      <c r="O46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -6581,11 +6744,11 @@
       <c r="F47" t="b">
         <v>0</v>
       </c>
-      <c r="O47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -6604,11 +6767,11 @@
       <c r="F48" t="b">
         <v>1</v>
       </c>
-      <c r="O48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -6627,14 +6790,14 @@
       <c r="F49" t="b">
         <v>1</v>
       </c>
-      <c r="L49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49" t="s">
+      <c r="M49" t="b">
+        <v>1</v>
+      </c>
+      <c r="R49" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" t="s">
         <v>141</v>
       </c>
@@ -6650,14 +6813,14 @@
       <c r="F50" t="b">
         <v>1</v>
       </c>
-      <c r="L50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50" t="s">
+      <c r="M50" t="b">
+        <v>1</v>
+      </c>
+      <c r="R50" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51" s="3" t="s">
         <v>147</v>
       </c>
@@ -6678,14 +6841,15 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="L51" s="3"/>
+      <c r="K51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="3" t="s">
         <v>148</v>
       </c>
@@ -6706,17 +6870,18 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="M52" s="3"/>
-      <c r="O52" s="3"/>
+      <c r="N52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52" s="3"/>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -6733,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="A54" t="s">
         <v>159</v>
       </c>
@@ -6750,7 +6915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="A55" t="s">
         <v>162</v>
       </c>
@@ -6766,10 +6931,10 @@
       <c r="F55" t="b">
         <v>1</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="O55" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>164</v>
       </c>
     </row>

--- a/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
+++ b/molgenis-app/src/test/resources/emx_all_datatypes.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="176">
   <si>
     <t>text</t>
   </si>
@@ -530,12 +530,6 @@
   </si>
   <si>
     <t>defaultValue</t>
-  </si>
-  <si>
-    <t>typeTestRef</t>
-  </si>
-  <si>
-    <t>typeTestRefLabel</t>
   </si>
   <si>
     <t>ref1,ref2</t>
@@ -5632,8 +5626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5724,9 +5718,6 @@
       <c r="F2" t="b">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>169</v>
-      </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
@@ -5747,9 +5738,6 @@
       <c r="F3" t="b">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>170</v>
-      </c>
       <c r="K3" t="b">
         <v>1</v>
       </c>
@@ -5958,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N12" t="b">
         <v>1</v>
@@ -5984,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6133,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N20" t="b">
         <v>1</v>
@@ -6245,7 +6233,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N25" t="b">
         <v>1</v>
@@ -6268,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N26" t="b">
         <v>1</v>
@@ -6291,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -6500,9 +6488,6 @@
       <c r="F36" t="b">
         <v>0</v>
       </c>
-      <c r="H36" t="s">
-        <v>171</v>
-      </c>
       <c r="N36" t="b">
         <v>1</v>
       </c>
@@ -6526,9 +6511,6 @@
       <c r="F37" t="b">
         <v>1</v>
       </c>
-      <c r="H37" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
@@ -6632,9 +6614,6 @@
       <c r="F42" t="b">
         <v>0</v>
       </c>
-      <c r="H42" t="s">
-        <v>2</v>
-      </c>
       <c r="N42" t="b">
         <v>1</v>
       </c>
@@ -6658,9 +6637,6 @@
       <c r="F43" t="b">
         <v>1</v>
       </c>
-      <c r="H43" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" t="s">
@@ -6702,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O45" t="b">
         <v>0</v>
